--- a/input_data/admin_data/URY/gpinter_URY_2010.xlsx
+++ b/input_data/admin_data/URY/gpinter_URY_2010.xlsx
@@ -13,12 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>N</t>
+    <t>thr</t>
   </si>
   <si>
-    <t>thr</t>
+    <t>p</t>
   </si>
   <si>
     <t>bracketavg</t>
@@ -54,16 +54,13 @@
     <t>cap_inc</t>
   </si>
   <si>
-    <t>topavg</t>
-  </si>
-  <si>
-    <t>p</t>
+    <t>average</t>
   </si>
   <si>
     <t>totalpop</t>
   </si>
   <si>
-    <t>average</t>
+    <t>topavg</t>
   </si>
 </sst>
 </file>
@@ -107,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q128"/>
+  <dimension ref="A1:P128"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -159,16 +156,13 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>33968</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -199,21 +193,18 @@
         <v>83348.786658917903</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>3396706</v>
       </c>
       <c r="P2">
-        <v>3396706</v>
-      </c>
-      <c r="Q2">
         <v>83348.786658917903</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>33967</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0.0099999997764825821</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -241,24 +232,21 @@
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O3">
+        <v>3396706</v>
+      </c>
+      <c r="P3">
         <v>84190.717129037832</v>
-      </c>
-      <c r="O3">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="P3">
-        <v>3396706</v>
-      </c>
-      <c r="Q3">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>33967</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>0.019999999552965164</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -286,24 +274,21 @@
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O4">
+        <v>3396706</v>
+      </c>
+      <c r="P4">
         <v>85049.804788934533</v>
-      </c>
-      <c r="O4">
-        <v>0.019999999552965164</v>
-      </c>
-      <c r="P4">
-        <v>3396706</v>
-      </c>
-      <c r="Q4">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>33967</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>0.029999999329447746</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -331,24 +316,21 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O5">
+        <v>3396706</v>
+      </c>
+      <c r="P5">
         <v>85926.605569577558</v>
-      </c>
-      <c r="O5">
-        <v>0.029999999329447746</v>
-      </c>
-      <c r="P5">
-        <v>3396706</v>
-      </c>
-      <c r="Q5">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>33967</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>0.039999999105930328</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -376,24 +358,21 @@
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O6">
+        <v>3396706</v>
+      </c>
+      <c r="P6">
         <v>86821.673005141449</v>
-      </c>
-      <c r="O6">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="P6">
-        <v>3396706</v>
-      </c>
-      <c r="Q6">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>33967</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -421,24 +400,21 @@
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O7">
+        <v>3396706</v>
+      </c>
+      <c r="P7">
         <v>87735.583936466734</v>
-      </c>
-      <c r="O7">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="P7">
-        <v>3396706</v>
-      </c>
-      <c r="Q7">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>33967</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>0.059999998658895493</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -466,24 +442,21 @@
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O8">
+        <v>3396706</v>
+      </c>
+      <c r="P8">
         <v>88668.939750774269</v>
-      </c>
-      <c r="O8">
-        <v>0.059999998658895493</v>
-      </c>
-      <c r="P8">
-        <v>3396706</v>
-      </c>
-      <c r="Q8">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>33967</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>0.070000000298023224</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -511,24 +484,21 @@
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O9">
+        <v>3396706</v>
+      </c>
+      <c r="P9">
         <v>89622.36770136097</v>
-      </c>
-      <c r="O9">
-        <v>0.070000000298023224</v>
-      </c>
-      <c r="P9">
-        <v>3396706</v>
-      </c>
-      <c r="Q9">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>33967</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>0.079999998211860657</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -556,24 +526,21 @@
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O10">
+        <v>3396706</v>
+      </c>
+      <c r="P10">
         <v>90596.522313362599</v>
-      </c>
-      <c r="O10">
-        <v>0.079999998211860657</v>
-      </c>
-      <c r="P10">
-        <v>3396706</v>
-      </c>
-      <c r="Q10">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>33967</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>0.090000003576278687</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -601,24 +568,21 @@
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O11">
+        <v>3396706</v>
+      </c>
+      <c r="P11">
         <v>91592.086882204021</v>
-      </c>
-      <c r="O11">
-        <v>0.090000003576278687</v>
-      </c>
-      <c r="P11">
-        <v>3396706</v>
-      </c>
-      <c r="Q11">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>33967</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -646,24 +610,21 @@
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O12">
+        <v>3396706</v>
+      </c>
+      <c r="P12">
         <v>92609.775071945987</v>
-      </c>
-      <c r="O12">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="P12">
-        <v>3396706</v>
-      </c>
-      <c r="Q12">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>33967</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>0.10999999940395355</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -691,24 +652,21 @@
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O13">
+        <v>3396706</v>
+      </c>
+      <c r="P13">
         <v>93650.332621385431</v>
-      </c>
-      <c r="O13">
-        <v>0.10999999940395355</v>
-      </c>
-      <c r="P13">
-        <v>3396706</v>
-      </c>
-      <c r="Q13">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>33967</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>0.11999999731779099</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -736,24 +694,21 @@
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O14">
+        <v>3396706</v>
+      </c>
+      <c r="P14">
         <v>94714.539166480623</v>
-      </c>
-      <c r="O14">
-        <v>0.11999999731779099</v>
-      </c>
-      <c r="P14">
-        <v>3396706</v>
-      </c>
-      <c r="Q14">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>33967</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>0.12999999523162842</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -781,24 +736,21 @@
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O15">
+        <v>3396706</v>
+      </c>
+      <c r="P15">
         <v>95803.210188460624</v>
-      </c>
-      <c r="O15">
-        <v>0.12999999523162842</v>
-      </c>
-      <c r="P15">
-        <v>3396706</v>
-      </c>
-      <c r="Q15">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>33967</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>0.14000000059604645</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -826,24 +778,21 @@
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O16">
+        <v>3396706</v>
+      </c>
+      <c r="P16">
         <v>96917.19909784905</v>
-      </c>
-      <c r="O16">
-        <v>0.14000000059604645</v>
-      </c>
-      <c r="P16">
-        <v>3396706</v>
-      </c>
-      <c r="Q16">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>33967</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>0.15000000596046448</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -871,24 +820,21 @@
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O17">
+        <v>3396706</v>
+      </c>
+      <c r="P17">
         <v>98057.399465595183</v>
-      </c>
-      <c r="O17">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="P17">
-        <v>3396706</v>
-      </c>
-      <c r="Q17">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>33967</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>0.15999999642372131</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -916,24 +862,21 @@
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O18">
+        <v>3396706</v>
+      </c>
+      <c r="P18">
         <v>99224.747413571342</v>
-      </c>
-      <c r="O18">
-        <v>0.15999999642372131</v>
-      </c>
-      <c r="P18">
-        <v>3396706</v>
-      </c>
-      <c r="Q18">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>33968</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>0.17000000178813934</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -961,24 +904,21 @@
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O19">
+        <v>3396706</v>
+      </c>
+      <c r="P19">
         <v>100420.22417787694</v>
-      </c>
-      <c r="O19">
-        <v>0.17000000178813934</v>
-      </c>
-      <c r="P19">
-        <v>3396706</v>
-      </c>
-      <c r="Q19">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>33967</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>0.18000000715255737</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1006,24 +946,21 @@
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O20">
+        <v>3396706</v>
+      </c>
+      <c r="P20">
         <v>101644.89535305249</v>
-      </c>
-      <c r="O20">
-        <v>0.18000000715255737</v>
-      </c>
-      <c r="P20">
-        <v>3396706</v>
-      </c>
-      <c r="Q20">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>33967</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>0.18999999761581421</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1051,24 +988,21 @@
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O21">
+        <v>3396706</v>
+      </c>
+      <c r="P21">
         <v>102899.76877993466</v>
-      </c>
-      <c r="O21">
-        <v>0.18999999761581421</v>
-      </c>
-      <c r="P21">
-        <v>3396706</v>
-      </c>
-      <c r="Q21">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>33967</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1096,24 +1030,21 @@
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O22">
+        <v>3396706</v>
+      </c>
+      <c r="P22">
         <v>104186.01399630908</v>
-      </c>
-      <c r="O22">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="P22">
-        <v>3396706</v>
-      </c>
-      <c r="Q22">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>33967</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>0.20999999344348907</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1141,24 +1072,21 @@
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O23">
+        <v>3396706</v>
+      </c>
+      <c r="P23">
         <v>105504.82233417805</v>
-      </c>
-      <c r="O23">
-        <v>0.20999999344348907</v>
-      </c>
-      <c r="P23">
-        <v>3396706</v>
-      </c>
-      <c r="Q23">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>33967</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>0.2199999988079071</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1186,24 +1114,21 @@
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O24">
+        <v>3396706</v>
+      </c>
+      <c r="P24">
         <v>106857.44621940055</v>
-      </c>
-      <c r="O24">
-        <v>0.2199999988079071</v>
-      </c>
-      <c r="P24">
-        <v>3396706</v>
-      </c>
-      <c r="Q24">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>33967</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>0.23000000417232513</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1231,24 +1156,21 @@
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O25">
+        <v>3396706</v>
+      </c>
+      <c r="P25">
         <v>108245.20313881955</v>
-      </c>
-      <c r="O25">
-        <v>0.23000000417232513</v>
-      </c>
-      <c r="P25">
-        <v>3396706</v>
-      </c>
-      <c r="Q25">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>33967</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>0.23999999463558197</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1276,24 +1198,21 @@
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O26">
+        <v>3396706</v>
+      </c>
+      <c r="P26">
         <v>109669.47992058341</v>
-      </c>
-      <c r="O26">
-        <v>0.23999999463558197</v>
-      </c>
-      <c r="P26">
-        <v>3396706</v>
-      </c>
-      <c r="Q26">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>33967</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>0.25</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1321,24 +1240,21 @@
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O27">
+        <v>3396706</v>
+      </c>
+      <c r="P27">
         <v>111131.73735689226</v>
-      </c>
-      <c r="O27">
-        <v>0.25</v>
-      </c>
-      <c r="P27">
-        <v>3396706</v>
-      </c>
-      <c r="Q27">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>33967</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>0.25999999046325684</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1366,24 +1282,21 @@
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O28">
+        <v>3396706</v>
+      </c>
+      <c r="P28">
         <v>112633.51520156114</v>
-      </c>
-      <c r="O28">
-        <v>0.25999999046325684</v>
-      </c>
-      <c r="P28">
-        <v>3396706</v>
-      </c>
-      <c r="Q28">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>33967</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>0.27000001072883606</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1411,24 +1324,21 @@
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O29">
+        <v>3396706</v>
+      </c>
+      <c r="P29">
         <v>114176.43757834098</v>
-      </c>
-      <c r="O29">
-        <v>0.27000001072883606</v>
-      </c>
-      <c r="P29">
-        <v>3396706</v>
-      </c>
-      <c r="Q29">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>33967</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>0.2800000011920929</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1456,24 +1366,21 @@
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O30">
+        <v>3396706</v>
+      </c>
+      <c r="P30">
         <v>115762.21883993248</v>
-      </c>
-      <c r="O30">
-        <v>0.2800000011920929</v>
-      </c>
-      <c r="P30">
-        <v>3396706</v>
-      </c>
-      <c r="Q30">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>33967</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>0.28999999165534973</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1501,24 +1408,21 @@
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O31">
+        <v>3396706</v>
+      </c>
+      <c r="P31">
         <v>117392.66992212686</v>
-      </c>
-      <c r="O31">
-        <v>0.28999999165534973</v>
-      </c>
-      <c r="P31">
-        <v>3396706</v>
-      </c>
-      <c r="Q31">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>33967</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>0.30000001192092896</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1546,24 +1450,21 @@
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O32">
+        <v>3396706</v>
+      </c>
+      <c r="P32">
         <v>119069.70524258648</v>
-      </c>
-      <c r="O32">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="P32">
-        <v>3396706</v>
-      </c>
-      <c r="Q32">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>33967</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>0.31000000238418579</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1591,24 +1492,21 @@
       <c r="L33"/>
       <c r="M33"/>
       <c r="N33">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O33">
+        <v>3396706</v>
+      </c>
+      <c r="P33">
         <v>120795.35019951829</v>
-      </c>
-      <c r="O33">
-        <v>0.31000000238418579</v>
-      </c>
-      <c r="P33">
-        <v>3396706</v>
-      </c>
-      <c r="Q33">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33967</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>0.31999999284744263</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1636,24 +1534,21 @@
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O34">
+        <v>3396706</v>
+      </c>
+      <c r="P34">
         <v>122571.74933199398</v>
-      </c>
-      <c r="O34">
-        <v>0.31999999284744263</v>
-      </c>
-      <c r="P34">
-        <v>3396706</v>
-      </c>
-      <c r="Q34">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>33967</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>0.33000001311302185</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1681,24 +1576,21 @@
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O35">
+        <v>3396706</v>
+      </c>
+      <c r="P35">
         <v>124401.17521104353</v>
-      </c>
-      <c r="O35">
-        <v>0.33000001311302185</v>
-      </c>
-      <c r="P35">
-        <v>3396706</v>
-      </c>
-      <c r="Q35">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>33968</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>0.34000000357627869</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1726,24 +1618,21 @@
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O36">
+        <v>3396706</v>
+      </c>
+      <c r="P36">
         <v>126286.03813902881</v>
-      </c>
-      <c r="O36">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="P36">
-        <v>3396706</v>
-      </c>
-      <c r="Q36">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>33967</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>0.34999999403953552</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1771,24 +1660,21 @@
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O37">
+        <v>3396706</v>
+      </c>
+      <c r="P37">
         <v>128228.95482275871</v>
-      </c>
-      <c r="O37">
-        <v>0.34999999403953552</v>
-      </c>
-      <c r="P37">
-        <v>3396706</v>
-      </c>
-      <c r="Q37">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>33967</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>0.36000001430511475</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1816,24 +1702,21 @@
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O38">
+        <v>3396706</v>
+      </c>
+      <c r="P38">
         <v>130232.52947689944</v>
-      </c>
-      <c r="O38">
-        <v>0.36000001430511475</v>
-      </c>
-      <c r="P38">
-        <v>3396706</v>
-      </c>
-      <c r="Q38">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>33967</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>0.37000000476837158</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1861,24 +1744,21 @@
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O39">
+        <v>3396706</v>
+      </c>
+      <c r="P39">
         <v>132299.70958644626</v>
-      </c>
-      <c r="O39">
-        <v>0.37000000476837158</v>
-      </c>
-      <c r="P39">
-        <v>3396706</v>
-      </c>
-      <c r="Q39">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>33967</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>0.37999999523162842</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1906,24 +1786,21 @@
       <c r="L40"/>
       <c r="M40"/>
       <c r="N40">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O40">
+        <v>3396706</v>
+      </c>
+      <c r="P40">
         <v>134433.57283034097</v>
-      </c>
-      <c r="O40">
-        <v>0.37999999523162842</v>
-      </c>
-      <c r="P40">
-        <v>3396706</v>
-      </c>
-      <c r="Q40">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>33967</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>0.38999998569488525</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1951,24 +1828,21 @@
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O41">
+        <v>3396706</v>
+      </c>
+      <c r="P41">
         <v>136637.39870224588</v>
-      </c>
-      <c r="O41">
-        <v>0.38999998569488525</v>
-      </c>
-      <c r="P41">
-        <v>3396706</v>
-      </c>
-      <c r="Q41">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>33967</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1996,24 +1870,21 @@
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O42">
+        <v>3396706</v>
+      </c>
+      <c r="P42">
         <v>138914.6853284121</v>
-      </c>
-      <c r="O42">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="P42">
-        <v>3396706</v>
-      </c>
-      <c r="Q42">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>33967</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>0.40999999642372131</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2041,24 +1912,21 @@
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O43">
+        <v>3396706</v>
+      </c>
+      <c r="P43">
         <v>141269.16799583763</v>
-      </c>
-      <c r="O43">
-        <v>0.40999999642372131</v>
-      </c>
-      <c r="P43">
-        <v>3396706</v>
-      </c>
-      <c r="Q43">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>33967</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>0.41999998688697815</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2086,24 +1954,21 @@
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O44">
+        <v>3396706</v>
+      </c>
+      <c r="P44">
         <v>143704.83959712804</v>
-      </c>
-      <c r="O44">
-        <v>0.41999998688697815</v>
-      </c>
-      <c r="P44">
-        <v>3396706</v>
-      </c>
-      <c r="Q44">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>33967</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>0.43000000715255737</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2131,24 +1996,21 @@
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O45">
+        <v>3396706</v>
+      </c>
+      <c r="P45">
         <v>146225.97322744454</v>
-      </c>
-      <c r="O45">
-        <v>0.43000000715255737</v>
-      </c>
-      <c r="P45">
-        <v>3396706</v>
-      </c>
-      <c r="Q45">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>33967</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2176,24 +2038,21 @@
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O46">
+        <v>3396706</v>
+      </c>
+      <c r="P46">
         <v>148837.14720254994</v>
-      </c>
-      <c r="O46">
-        <v>0.43999999761581421</v>
-      </c>
-      <c r="P46">
-        <v>3396706</v>
-      </c>
-      <c r="Q46">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>33967</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>0.44999998807907104</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2221,24 +2080,21 @@
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O47">
+        <v>3396706</v>
+      </c>
+      <c r="P47">
         <v>151543.27280609147</v>
-      </c>
-      <c r="O47">
-        <v>0.44999998807907104</v>
-      </c>
-      <c r="P47">
-        <v>3396706</v>
-      </c>
-      <c r="Q47">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>33967</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>47</v>
+        <v>0.46000000834465027</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2266,24 +2122,21 @@
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O48">
+        <v>3396706</v>
+      </c>
+      <c r="P48">
         <v>154349.62511990999</v>
-      </c>
-      <c r="O48">
-        <v>0.46000000834465027</v>
-      </c>
-      <c r="P48">
-        <v>3396706</v>
-      </c>
-      <c r="Q48">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>33967</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2311,24 +2164,21 @@
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O49">
+        <v>3396706</v>
+      </c>
+      <c r="P49">
         <v>157261.87734456715</v>
-      </c>
-      <c r="O49">
-        <v>0.4699999988079071</v>
-      </c>
-      <c r="P49">
-        <v>3396706</v>
-      </c>
-      <c r="Q49">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>33967</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>0.47999998927116394</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2356,24 +2206,21 @@
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O50">
+        <v>3396706</v>
+      </c>
+      <c r="P50">
         <v>160286.13907992665</v>
-      </c>
-      <c r="O50">
-        <v>0.47999998927116394</v>
-      </c>
-      <c r="P50">
-        <v>3396706</v>
-      </c>
-      <c r="Q50">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>33967</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <v>0.49000000953674316</v>
       </c>
       <c r="C51">
         <v>143.52923238777171</v>
@@ -2385,10 +2232,10 @@
         <v>0.84331851502929311</v>
       </c>
       <c r="F51">
-        <v>0.20022374657756059</v>
+        <v>0.20019430623840789</v>
       </c>
       <c r="G51">
-        <v>0.1170842288103159</v>
+        <v>0.11711366914946859</v>
       </c>
       <c r="H51">
         <v>0.0429534548237996</v>
@@ -2409,39 +2256,36 @@
         <v>0.28520804387521548</v>
       </c>
       <c r="N51">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O51">
+        <v>3396706</v>
+      </c>
+      <c r="P51">
         <v>163428.99910932529</v>
-      </c>
-      <c r="O51">
-        <v>0.49000000953674316</v>
-      </c>
-      <c r="P51">
-        <v>3396706</v>
-      </c>
-      <c r="Q51">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>33968</v>
+        <v>934</v>
       </c>
       <c r="B52">
-        <v>934</v>
+        <v>0.5</v>
       </c>
       <c r="C52">
         <v>2467.2049680144728</v>
       </c>
       <c r="D52">
-        <v>0.50703603391427221</v>
+        <v>0.50706547338671693</v>
       </c>
       <c r="E52">
-        <v>0.49296396608572779</v>
+        <v>0.49293452661328307</v>
       </c>
       <c r="F52">
-        <v>0.53509185115402735</v>
+        <v>0.53512129062647196</v>
       </c>
       <c r="G52">
-        <v>0.36201719265190768</v>
+        <v>0.36198775317946302</v>
       </c>
       <c r="H52">
         <v>0.097739048516250607</v>
@@ -2450,36 +2294,33 @@
         <v>0.0051519076778143999</v>
       </c>
       <c r="J52">
-        <v>0.72277780510328926</v>
+        <v>0.72282963908950348</v>
       </c>
       <c r="K52">
         <v>0.016417998730130001</v>
       </c>
       <c r="L52">
-        <v>0.13897183315488501</v>
+        <v>0.13891999916867079</v>
       </c>
       <c r="M52">
         <v>0.1218323630083729</v>
       </c>
       <c r="N52">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O52">
+        <v>3396706</v>
+      </c>
+      <c r="P52">
         <v>166694.7027382587</v>
-      </c>
-      <c r="O52">
-        <v>0.5</v>
-      </c>
-      <c r="P52">
-        <v>3396706</v>
-      </c>
-      <c r="Q52">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>33967</v>
+        <v>4396</v>
       </c>
       <c r="B53">
-        <v>4396</v>
+        <v>0.50999999046325684</v>
       </c>
       <c r="C53">
         <v>6431.7113556448166</v>
@@ -2491,207 +2332,195 @@
         <v>0.60502840992728235</v>
       </c>
       <c r="F53">
-        <v>0.5491506462154444</v>
+        <v>0.54923896723290255</v>
       </c>
       <c r="G53">
-        <v>0.29846615833014389</v>
+        <v>0.29834839697353321</v>
       </c>
       <c r="H53">
-        <v>0.14614184355403781</v>
+        <v>0.14620072423234309</v>
       </c>
       <c r="I53">
-        <v>0.0062413519003738996</v>
+        <v>0.0062119115612212002</v>
       </c>
       <c r="J53">
-        <v>0.73345942292321376</v>
+        <v>0.73343953881675938</v>
       </c>
       <c r="K53">
         <v>0.016542365853760101</v>
       </c>
       <c r="L53">
-        <v>0.2100607448484367</v>
+        <v>0.21008062895489099</v>
       </c>
       <c r="M53">
         <v>0.039937466371516302</v>
       </c>
       <c r="N53">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O53">
+        <v>3396706</v>
+      </c>
+      <c r="P53">
         <v>170046.37896957516</v>
-      </c>
-      <c r="O53">
-        <v>0.50999999046325684</v>
-      </c>
-      <c r="P53">
-        <v>3396706</v>
-      </c>
-      <c r="Q53">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>33967</v>
+        <v>8596</v>
       </c>
       <c r="B54">
-        <v>8596</v>
+        <v>0.51999998092651367</v>
       </c>
       <c r="C54">
         <v>10826.51636281975</v>
       </c>
       <c r="D54">
-        <v>0.38584508493537839</v>
+        <v>0.38578620425707311</v>
       </c>
       <c r="E54">
-        <v>0.6141549150646215</v>
+        <v>0.614213795742927</v>
       </c>
       <c r="F54">
-        <v>0.50719816292283693</v>
+        <v>0.50708040156622602</v>
       </c>
       <c r="G54">
-        <v>0.31009509229546323</v>
+        <v>0.31024229399122683</v>
       </c>
       <c r="H54">
-        <v>0.17758412576912891</v>
+        <v>0.17752524509082351</v>
       </c>
       <c r="I54">
-        <v>0.0051226190125709999</v>
+        <v>0.0051520593517237001</v>
       </c>
       <c r="J54">
-        <v>0.70035836340515412</v>
+        <v>0.70032310248973129</v>
       </c>
       <c r="K54">
         <v>0.0166583319234598</v>
       </c>
       <c r="L54">
-        <v>0.25277958279167068</v>
+        <v>0.25281484370709362</v>
       </c>
       <c r="M54">
         <v>0.0302037218881697</v>
       </c>
       <c r="N54">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O54">
+        <v>3396706</v>
+      </c>
+      <c r="P54">
         <v>173455.01369689195</v>
-      </c>
-      <c r="O54">
-        <v>0.51999998092651367</v>
-      </c>
-      <c r="P54">
-        <v>3396706</v>
-      </c>
-      <c r="Q54">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>33967</v>
+        <v>13021</v>
       </c>
       <c r="B55">
-        <v>13021</v>
+        <v>0.52999997138977051</v>
       </c>
       <c r="C55">
         <v>15543.048889248201</v>
       </c>
       <c r="D55">
-        <v>0.42717932110577922</v>
+        <v>0.42723820178408461</v>
       </c>
       <c r="E55">
-        <v>0.57282067889422084</v>
+        <v>0.57276179821591544</v>
       </c>
       <c r="F55">
-        <v>0.5310742779756823</v>
+        <v>0.53110371831483494</v>
       </c>
       <c r="G55">
-        <v>0.28960461624517908</v>
+        <v>0.28954573556687369</v>
       </c>
       <c r="H55">
-        <v>0.17337415727029179</v>
+        <v>0.17340359760944449</v>
       </c>
       <c r="I55">
         <v>0.0059469485088468003</v>
       </c>
       <c r="J55">
-        <v>0.73483150872895675</v>
+        <v>0.73482162901937631</v>
       </c>
       <c r="K55">
         <v>0.0197525113201765</v>
       </c>
       <c r="L55">
-        <v>0.21653188448790031</v>
+        <v>0.21654176419748081</v>
       </c>
       <c r="M55">
         <v>0.0288840954622149</v>
       </c>
       <c r="N55">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O55">
+        <v>3396706</v>
+      </c>
+      <c r="P55">
         <v>176915.19015639269</v>
-      </c>
-      <c r="O55">
-        <v>0.52999997138977051</v>
-      </c>
-      <c r="P55">
-        <v>3396706</v>
-      </c>
-      <c r="Q55">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>33967</v>
+        <v>18238</v>
       </c>
       <c r="B56">
-        <v>18238</v>
+        <v>0.54000002145767212</v>
       </c>
       <c r="C56">
         <v>20732.47594143535</v>
       </c>
       <c r="D56">
-        <v>0.39921099891070738</v>
+        <v>0.39918155857155468</v>
       </c>
       <c r="E56">
-        <v>0.60078900108929256</v>
+        <v>0.6008184414284452</v>
       </c>
       <c r="F56">
         <v>0.50566726528689609</v>
       </c>
       <c r="G56">
-        <v>0.30379485971678388</v>
+        <v>0.30382430005593658</v>
       </c>
       <c r="H56">
-        <v>0.18488532987900019</v>
+        <v>0.1848558895398475</v>
       </c>
       <c r="I56">
         <v>0.0056525451173197998</v>
       </c>
       <c r="J56">
-        <v>0.70279308562567022</v>
+        <v>0.70281890568152494</v>
       </c>
       <c r="K56">
         <v>0.0195108173603461</v>
       </c>
       <c r="L56">
-        <v>0.25111825340489519</v>
+        <v>0.25109243334904058</v>
       </c>
       <c r="M56">
         <v>0.026577843577970901</v>
       </c>
       <c r="N56">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O56">
+        <v>3396706</v>
+      </c>
+      <c r="P56">
         <v>180423.2756935381</v>
-      </c>
-      <c r="O56">
-        <v>0.54000002145767212</v>
-      </c>
-      <c r="P56">
-        <v>3396706</v>
-      </c>
-      <c r="Q56">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>33967</v>
+        <v>23410</v>
       </c>
       <c r="B57">
-        <v>23410</v>
+        <v>0.55000001192092896</v>
       </c>
       <c r="C57">
         <v>25734.886596158591</v>
@@ -2727,24 +2556,21 @@
         <v>0.0223113126342184</v>
       </c>
       <c r="N57">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O57">
+        <v>3396706</v>
+      </c>
+      <c r="P57">
         <v>183971.95548916986</v>
-      </c>
-      <c r="O57">
-        <v>0.55000001192092896</v>
-      </c>
-      <c r="P57">
-        <v>3396706</v>
-      </c>
-      <c r="Q57">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>33967</v>
+        <v>28023</v>
       </c>
       <c r="B58">
-        <v>28023</v>
+        <v>0.56000000238418579</v>
       </c>
       <c r="C58">
         <v>30426.342930673061</v>
@@ -2780,24 +2606,21 @@
         <v>0.022237139859989499</v>
       </c>
       <c r="N58">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O58">
+        <v>3396706</v>
+      </c>
+      <c r="P58">
         <v>187568.2476969173</v>
-      </c>
-      <c r="O58">
-        <v>0.56000000238418579</v>
-      </c>
-      <c r="P58">
-        <v>3396706</v>
-      </c>
-      <c r="Q58">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>33967</v>
+        <v>33036</v>
       </c>
       <c r="B59">
-        <v>33036</v>
+        <v>0.56999999284744263</v>
       </c>
       <c r="C59">
         <v>35555.181213682583</v>
@@ -2833,42 +2656,39 @@
         <v>0.0216806384593962</v>
       </c>
       <c r="N59">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O59">
+        <v>3396706</v>
+      </c>
+      <c r="P59">
         <v>191222.70559434249</v>
-      </c>
-      <c r="O59">
-        <v>0.56999999284744263</v>
-      </c>
-      <c r="P59">
-        <v>3396706</v>
-      </c>
-      <c r="Q59">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>33967</v>
+        <v>38174</v>
       </c>
       <c r="B60">
-        <v>38174</v>
+        <v>0.57999998331069946</v>
       </c>
       <c r="C60">
         <v>39773.831149304839</v>
       </c>
       <c r="D60">
-        <v>0.37021226484529102</v>
+        <v>0.37106603468071953</v>
       </c>
       <c r="E60">
-        <v>0.62978773515470898</v>
+        <v>0.62893396531928047</v>
       </c>
       <c r="F60">
         <v>0.2141784673359437</v>
       </c>
       <c r="G60">
-        <v>0.13486619365855099</v>
+        <v>0.13489563399770371</v>
       </c>
       <c r="H60">
-        <v>0.64854123119498341</v>
+        <v>0.64851179085583066</v>
       </c>
       <c r="I60">
         <v>0.0024141078105220002</v>
@@ -2886,42 +2706,39 @@
         <v>0.0085623461637961001</v>
       </c>
       <c r="N60">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O60">
+        <v>3396706</v>
+      </c>
+      <c r="P60">
         <v>194929.07002642367</v>
-      </c>
-      <c r="O60">
-        <v>0.57999998331069946</v>
-      </c>
-      <c r="P60">
-        <v>3396706</v>
-      </c>
-      <c r="Q60">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>33967</v>
+        <v>40338</v>
       </c>
       <c r="B61">
-        <v>40338</v>
+        <v>0.5899999737739563</v>
       </c>
       <c r="C61">
         <v>41968.286764198521</v>
       </c>
       <c r="D61">
-        <v>0.4132540406865487</v>
+        <v>0.41240027085112019</v>
       </c>
       <c r="E61">
-        <v>0.5867459593134513</v>
+        <v>0.58759972914887981</v>
       </c>
       <c r="F61">
         <v>0.3441281243559926</v>
       </c>
       <c r="G61">
-        <v>0.2075543910265846</v>
+        <v>0.2075249506874319</v>
       </c>
       <c r="H61">
-        <v>0.44528512968469403</v>
+        <v>0.44531457002384672</v>
       </c>
       <c r="I61">
         <v>0.0030323549327288001</v>
@@ -2939,24 +2756,21 @@
         <v>0.0163784494261262</v>
       </c>
       <c r="N61">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O61">
+        <v>3396706</v>
+      </c>
+      <c r="P61">
         <v>198713.33871073613</v>
-      </c>
-      <c r="O61">
-        <v>0.5899999737739563</v>
-      </c>
-      <c r="P61">
-        <v>3396706</v>
-      </c>
-      <c r="Q61">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>33967</v>
+        <v>44041</v>
       </c>
       <c r="B62">
-        <v>44041</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="C62">
         <v>46037.763717013018</v>
@@ -2992,42 +2806,39 @@
         <v>0.016200035541391201</v>
       </c>
       <c r="N62">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O62">
+        <v>3396706</v>
+      </c>
+      <c r="P62">
         <v>202631.9592411237</v>
-      </c>
-      <c r="O62">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="P62">
-        <v>3396706</v>
-      </c>
-      <c r="Q62">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>33967</v>
+        <v>48132.15625</v>
       </c>
       <c r="B63">
-        <v>48132.15625</v>
+        <v>0.61000001430511475</v>
       </c>
       <c r="C63">
         <v>49853.812471709673</v>
       </c>
       <c r="D63">
-        <v>0.46913180439838659</v>
+        <v>0.46907292372008119</v>
       </c>
       <c r="E63">
-        <v>0.53086819560161336</v>
+        <v>0.53092707627991875</v>
       </c>
       <c r="F63">
-        <v>0.30576736244001529</v>
+        <v>0.3056201607442518</v>
       </c>
       <c r="G63">
-        <v>0.19910501368975769</v>
+        <v>0.19913445402891039</v>
       </c>
       <c r="H63">
-        <v>0.49185974622427647</v>
+        <v>0.49197750758088732</v>
       </c>
       <c r="I63">
         <v>0.0032678776459504999</v>
@@ -3045,148 +2856,139 @@
         <v>0.0131324527998385</v>
       </c>
       <c r="N63">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O63">
+        <v>3396706</v>
+      </c>
+      <c r="P63">
         <v>206647.18896175604</v>
-      </c>
-      <c r="O63">
-        <v>0.61000001430511475</v>
-      </c>
-      <c r="P63">
-        <v>3396706</v>
-      </c>
-      <c r="Q63">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>33967</v>
+        <v>51530</v>
       </c>
       <c r="B64">
-        <v>51530</v>
+        <v>0.62000000476837158</v>
       </c>
       <c r="C64">
         <v>51965.956385632562</v>
       </c>
       <c r="D64">
-        <v>0.42011363970912952</v>
+        <v>0.41914210851709011</v>
       </c>
       <c r="E64">
-        <v>0.57988636029087059</v>
+        <v>0.58085789148290989</v>
       </c>
       <c r="F64">
-        <v>0.22059646127123381</v>
+        <v>0.22094974534106629</v>
       </c>
       <c r="G64">
-        <v>0.22580740130126301</v>
+        <v>0.22315777077751939</v>
       </c>
       <c r="H64">
-        <v>0.55233020284393675</v>
+        <v>0.55462654929784794</v>
       </c>
       <c r="I64">
         <v>0.0012659345835664001</v>
       </c>
       <c r="J64">
-        <v>0.18910040460068209</v>
+        <v>0.1890997451582864</v>
       </c>
       <c r="K64">
         <v>0.0042700699501664998</v>
       </c>
       <c r="L64">
-        <v>0.80118130525604625</v>
+        <v>0.80118196469844194</v>
       </c>
       <c r="M64">
         <v>0.0054482201907188003</v>
       </c>
       <c r="N64">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O64">
+        <v>3396706</v>
+      </c>
+      <c r="P64">
         <v>210773.3240549248</v>
-      </c>
-      <c r="O64">
-        <v>0.62000000476837158</v>
-      </c>
-      <c r="P64">
-        <v>3396706</v>
-      </c>
-      <c r="Q64">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>33967</v>
+        <v>52888</v>
       </c>
       <c r="B65">
-        <v>52888</v>
+        <v>0.62999999523162842</v>
       </c>
       <c r="C65">
         <v>52885.051853982361</v>
       </c>
       <c r="D65">
-        <v>0.47869991462301648</v>
+        <v>0.47973032649336123</v>
       </c>
       <c r="E65">
-        <v>0.52130008537698358</v>
+        <v>0.52026967350663877</v>
       </c>
       <c r="F65">
-        <v>0.36034975122913421</v>
+        <v>0.36014366885506521</v>
       </c>
       <c r="G65">
-        <v>0.36229281361321281</v>
+        <v>0.36491300379780373</v>
       </c>
       <c r="H65">
-        <v>0.27682750905290432</v>
+        <v>0.27441340124238228</v>
       </c>
       <c r="I65">
         <v>0.00052992610474869996</v>
       </c>
       <c r="J65">
-        <v>0.1215535143991392</v>
+        <v>0.1215541623810087</v>
       </c>
       <c r="K65">
         <v>0.0019149614500271999</v>
       </c>
       <c r="L65">
-        <v>0.87420437357777103</v>
+        <v>0.87420372559590143</v>
       </c>
       <c r="M65">
         <v>0.0023271505690319002</v>
       </c>
       <c r="N65">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O65">
+        <v>3396706</v>
+      </c>
+      <c r="P65">
         <v>215065.40824272114</v>
-      </c>
-      <c r="O65">
-        <v>0.62999999523162842</v>
-      </c>
-      <c r="P65">
-        <v>3396706</v>
-      </c>
-      <c r="Q65">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>33967</v>
+        <v>53526</v>
       </c>
       <c r="B66">
-        <v>53526</v>
+        <v>0.63999998569488525</v>
       </c>
       <c r="C66">
         <v>55239.179422996953</v>
       </c>
       <c r="D66">
-        <v>0.40574675420260842</v>
+        <v>0.40677716607295322</v>
       </c>
       <c r="E66">
-        <v>0.59425324579739158</v>
+        <v>0.59322283392704689</v>
       </c>
       <c r="F66">
-        <v>0.23334412812435601</v>
+        <v>0.23337356846350871</v>
       </c>
       <c r="G66">
         <v>0.1486148320428651</v>
       </c>
       <c r="H66">
-        <v>0.61586245473547852</v>
+        <v>0.61583301439632587</v>
       </c>
       <c r="I66">
         <v>0.0021785850973003</v>
@@ -3204,33 +3006,30 @@
         <v>0.0093699347047471009</v>
       </c>
       <c r="N66">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O66">
+        <v>3396706</v>
+      </c>
+      <c r="P66">
         <v>219570.41077414152</v>
-      </c>
-      <c r="O66">
-        <v>0.63999998569488525</v>
-      </c>
-      <c r="P66">
-        <v>3396706</v>
-      </c>
-      <c r="Q66">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>33967</v>
+        <v>56069</v>
       </c>
       <c r="B67">
-        <v>56069</v>
+        <v>0.64999997615814209</v>
       </c>
       <c r="C67">
         <v>57777.931692088103</v>
       </c>
       <c r="D67">
-        <v>0.46147731621868282</v>
+        <v>0.46047634468749082</v>
       </c>
       <c r="E67">
-        <v>0.53852268378131718</v>
+        <v>0.53952365531250912</v>
       </c>
       <c r="F67">
         <v>0.34086024671004211</v>
@@ -3245,89 +3044,83 @@
         <v>0.0028557128978126001</v>
       </c>
       <c r="J67">
-        <v>0.50701359362156506</v>
+        <v>0.50704407091547599</v>
       </c>
       <c r="K67">
         <v>0.011388486442021801</v>
       </c>
       <c r="L67">
-        <v>0.46755870230364383</v>
+        <v>0.4675282250097329</v>
       </c>
       <c r="M67">
         <v>0.014039217622228701</v>
       </c>
       <c r="N67">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O67">
+        <v>3396706</v>
+      </c>
+      <c r="P67">
         <v>224265.58091403701</v>
-      </c>
-      <c r="O67">
-        <v>0.64999997615814209</v>
-      </c>
-      <c r="P67">
-        <v>3396706</v>
-      </c>
-      <c r="Q67">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>33967</v>
+        <v>59880</v>
       </c>
       <c r="B68">
-        <v>59880</v>
+        <v>0.6600000262260437</v>
       </c>
       <c r="C68">
         <v>61918.78640286436</v>
       </c>
       <c r="D68">
-        <v>0.48682544822916363</v>
+        <v>0.48679600789001087</v>
       </c>
       <c r="E68">
-        <v>0.51317455177083637</v>
+        <v>0.51320399210998913</v>
       </c>
       <c r="F68">
-        <v>0.36735655194747852</v>
+        <v>0.36732711160832571</v>
       </c>
       <c r="G68">
         <v>0.22298112874260309</v>
       </c>
       <c r="H68">
-        <v>0.40601171725498281</v>
+        <v>0.4060411575941355</v>
       </c>
       <c r="I68">
         <v>0.0036506020549356998</v>
       </c>
       <c r="J68">
-        <v>0.54867634897981321</v>
+        <v>0.54864764123373766</v>
       </c>
       <c r="K68">
         <v>0.0111908063977799</v>
       </c>
       <c r="L68">
-        <v>0.42352934942897291</v>
+        <v>0.42355805717504852</v>
       </c>
       <c r="M68">
         <v>0.0166034951937402</v>
       </c>
       <c r="N68">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O68">
+        <v>3396706</v>
+      </c>
+      <c r="P68">
         <v>229162.26799938089</v>
-      </c>
-      <c r="O68">
-        <v>0.6600000262260437</v>
-      </c>
-      <c r="P68">
-        <v>3396706</v>
-      </c>
-      <c r="Q68">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>33967</v>
+        <v>64089</v>
       </c>
       <c r="B69">
-        <v>64089</v>
+        <v>0.67000001668930054</v>
       </c>
       <c r="C69">
         <v>66173.22953010918</v>
@@ -3351,210 +3144,198 @@
         <v>0.0032678776459504999</v>
       </c>
       <c r="J69">
-        <v>0.57234929209981256</v>
+        <v>0.57234954346719691</v>
       </c>
       <c r="K69">
         <v>0.0128072498484642</v>
       </c>
       <c r="L69">
-        <v>0.40038026591870041</v>
+        <v>0.400380014551316</v>
       </c>
       <c r="M69">
         <v>0.0144631921650074</v>
       </c>
       <c r="N69">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O69">
+        <v>3396706</v>
+      </c>
+      <c r="P69">
         <v>234230.2432475838</v>
-      </c>
-      <c r="O69">
-        <v>0.67000001668930054</v>
-      </c>
-      <c r="P69">
-        <v>3396706</v>
-      </c>
-      <c r="Q69">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>33968</v>
+        <v>68459</v>
       </c>
       <c r="B70">
-        <v>68459</v>
+        <v>0.68000000715255737</v>
       </c>
       <c r="C70">
         <v>70392.027787872037</v>
       </c>
       <c r="D70">
-        <v>0.4266662741403674</v>
+        <v>0.42687235044748001</v>
       </c>
       <c r="E70">
-        <v>0.5733337258596326</v>
+        <v>0.57312764955252005</v>
       </c>
       <c r="F70">
-        <v>0.35942651907677808</v>
+        <v>0.35948539802166751</v>
       </c>
       <c r="G70">
-        <v>0.21738106453132361</v>
+        <v>0.21735162505887901</v>
       </c>
       <c r="H70">
-        <v>0.42013071125765428</v>
+        <v>0.42010127178520962</v>
       </c>
       <c r="I70">
         <v>0.0030617051342440001</v>
       </c>
       <c r="J70">
-        <v>0.54638987405650963</v>
+        <v>0.54648061645186319</v>
       </c>
       <c r="K70">
         <v>0.012092409645716701</v>
       </c>
       <c r="L70">
-        <v>0.42841114489002119</v>
+        <v>0.42832040249466768</v>
       </c>
       <c r="M70">
         <v>0.0131065713606109</v>
       </c>
       <c r="N70">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O70">
+        <v>3396706</v>
+      </c>
+      <c r="P70">
         <v>239482.01526288307</v>
-      </c>
-      <c r="O70">
-        <v>0.68000000715255737</v>
-      </c>
-      <c r="P70">
-        <v>3396706</v>
-      </c>
-      <c r="Q70">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>33967</v>
+        <v>72394</v>
       </c>
       <c r="B71">
-        <v>72394</v>
+        <v>0.68999999761581421</v>
       </c>
       <c r="C71">
         <v>74172.967744658425</v>
       </c>
       <c r="D71">
-        <v>0.49103541672800072</v>
+        <v>0.49088821503223717</v>
       </c>
       <c r="E71">
-        <v>0.50896458327199934</v>
+        <v>0.50911178496776288</v>
       </c>
       <c r="F71">
-        <v>0.34704271793211061</v>
+        <v>0.34698383725380522</v>
       </c>
       <c r="G71">
         <v>0.2130597344481408</v>
       </c>
       <c r="H71">
-        <v>0.43721847675685221</v>
+        <v>0.43727735743515772</v>
       </c>
       <c r="I71">
         <v>0.0026790708628963</v>
       </c>
       <c r="J71">
-        <v>0.53308992056680682</v>
+        <v>0.5329736563211277</v>
       </c>
       <c r="K71">
         <v>0.0103047264617362</v>
       </c>
       <c r="L71">
-        <v>0.44364843173790353</v>
+        <v>0.44376469598358259</v>
       </c>
       <c r="M71">
         <v>0.0129569212441335</v>
       </c>
       <c r="N71">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O71">
+        <v>3396706</v>
+      </c>
+      <c r="P71">
         <v>244936.68639043858</v>
-      </c>
-      <c r="O71">
-        <v>0.68999999761581421</v>
-      </c>
-      <c r="P71">
-        <v>3396706</v>
-      </c>
-      <c r="Q71">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>33967</v>
+        <v>76019</v>
       </c>
       <c r="B72">
-        <v>76019</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="C72">
         <v>77999.023775833892</v>
       </c>
       <c r="D72">
-        <v>0.50884682191538844</v>
+        <v>0.50881738157623579</v>
       </c>
       <c r="E72">
-        <v>0.49115317808461162</v>
+        <v>0.49118261842376421</v>
       </c>
       <c r="F72">
-        <v>0.39323461006270788</v>
+        <v>0.39326405040186058</v>
       </c>
       <c r="G72">
         <v>0.23399181558571561</v>
       </c>
       <c r="H72">
-        <v>0.37012394382783292</v>
+        <v>0.37009450348868023</v>
       </c>
       <c r="I72">
         <v>0.0026496305237436002</v>
       </c>
       <c r="J72">
-        <v>0.60172848041769589</v>
+        <v>0.60175714660824198</v>
       </c>
       <c r="K72">
         <v>0.0129355406060575</v>
       </c>
       <c r="L72">
-        <v>0.37253516536974079</v>
+        <v>0.37250649917919471</v>
       </c>
       <c r="M72">
         <v>0.012800813577005</v>
       </c>
       <c r="N72">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O72">
+        <v>3396706</v>
+      </c>
+      <c r="P72">
         <v>250628.8047593681</v>
-      </c>
-      <c r="O72">
-        <v>0.69999998807907104</v>
-      </c>
-      <c r="P72">
-        <v>3396706</v>
-      </c>
-      <c r="Q72">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>33967</v>
+        <v>80216</v>
       </c>
       <c r="B73">
-        <v>80216</v>
+        <v>0.70999997854232788</v>
       </c>
       <c r="C73">
         <v>82393.240678682618</v>
       </c>
       <c r="D73">
-        <v>0.50369476256366474</v>
+        <v>0.50366532222451199</v>
       </c>
       <c r="E73">
-        <v>0.49630523743633531</v>
+        <v>0.49633467777548801</v>
       </c>
       <c r="F73">
-        <v>0.3898489710601466</v>
+        <v>0.3898195307209939</v>
       </c>
       <c r="G73">
-        <v>0.22368769688226811</v>
+        <v>0.22371713722142081</v>
       </c>
       <c r="H73">
         <v>0.38372538051638361</v>
@@ -3575,130 +3356,121 @@
         <v>0.0141660034948636</v>
       </c>
       <c r="N73">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O73">
+        <v>3396706</v>
+      </c>
+      <c r="P73">
         <v>256581.54978463368</v>
-      </c>
-      <c r="O73">
-        <v>0.70999997854232788</v>
-      </c>
-      <c r="P73">
-        <v>3396706</v>
-      </c>
-      <c r="Q73">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>33967</v>
+        <v>84721</v>
       </c>
       <c r="B74">
-        <v>84721</v>
+        <v>0.72000002861022949</v>
       </c>
       <c r="C74">
         <v>86873.884957274713</v>
       </c>
       <c r="D74">
-        <v>0.49029940824918311</v>
+        <v>0.49032884858833581</v>
       </c>
       <c r="E74">
-        <v>0.50970059175081694</v>
+        <v>0.5096711514116643</v>
       </c>
       <c r="F74">
-        <v>0.36417699531898612</v>
+        <v>0.36411811464068072</v>
       </c>
       <c r="G74">
         <v>0.20596461271233851</v>
       </c>
       <c r="H74">
-        <v>0.42676715635764118</v>
+        <v>0.42682603703594668</v>
       </c>
       <c r="I74">
         <v>0.0030912356110342001</v>
       </c>
       <c r="J74">
-        <v>0.54427581887356014</v>
+        <v>0.544245640401819</v>
       </c>
       <c r="K74">
-        <v>0.0129718431771353</v>
+        <v>0.012941664705394099</v>
       </c>
       <c r="L74">
-        <v>0.42893004838276599</v>
+        <v>0.42899040532624833</v>
       </c>
       <c r="M74">
         <v>0.01382228958416</v>
       </c>
       <c r="N74">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O74">
+        <v>3396706</v>
+      </c>
+      <c r="P74">
         <v>262802.55428311467</v>
-      </c>
-      <c r="O74">
-        <v>0.72000002861022949</v>
-      </c>
-      <c r="P74">
-        <v>3396706</v>
-      </c>
-      <c r="Q74">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>33967</v>
+        <v>89126</v>
       </c>
       <c r="B75">
-        <v>89126</v>
+        <v>0.73000001907348633</v>
       </c>
       <c r="C75">
         <v>91430.231129662614</v>
       </c>
       <c r="D75">
-        <v>0.49465657844378369</v>
+        <v>0.49462713810463099</v>
       </c>
       <c r="E75">
-        <v>0.50534342155621625</v>
+        <v>0.50537286189536901</v>
       </c>
       <c r="F75">
-        <v>0.37663025878058121</v>
+        <v>0.37665969911973379</v>
       </c>
       <c r="G75">
         <v>0.2100568198545647</v>
       </c>
       <c r="H75">
-        <v>0.41007448405805641</v>
+        <v>0.41004504371890371</v>
       </c>
       <c r="I75">
         <v>0.0032384373067978001</v>
       </c>
       <c r="J75">
-        <v>0.56103048910892617</v>
+        <v>0.56102893321524605</v>
       </c>
       <c r="K75">
-        <v>0.013521938598645099</v>
+        <v>0.0135506131524534</v>
       </c>
       <c r="L75">
-        <v>0.41187753544039568</v>
+        <v>0.41185041678026763</v>
       </c>
       <c r="M75">
         <v>0.0135700368655397</v>
       </c>
       <c r="N75">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O75">
+        <v>3396706</v>
+      </c>
+      <c r="P75">
         <v>269318.42382001953</v>
-      </c>
-      <c r="O75">
-        <v>0.73000001907348633</v>
-      </c>
-      <c r="P75">
-        <v>3396706</v>
-      </c>
-      <c r="Q75">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>33967</v>
+        <v>93959</v>
       </c>
       <c r="B76">
-        <v>93959</v>
+        <v>0.74000000953674316</v>
       </c>
       <c r="C76">
         <v>96496.391682782181</v>
@@ -3710,48 +3482,45 @@
         <v>0.50708040156622602</v>
       </c>
       <c r="F76">
-        <v>0.39968204433715082</v>
+        <v>0.39971148467630352</v>
       </c>
       <c r="G76">
         <v>0.21906556363529309</v>
       </c>
       <c r="H76">
-        <v>0.37836723879059092</v>
+        <v>0.37833779845143822</v>
       </c>
       <c r="I76">
         <v>0.0028851532369652999</v>
       </c>
       <c r="J76">
-        <v>0.59192867444032449</v>
+        <v>0.59195731775799487</v>
       </c>
       <c r="K76">
         <v>0.0158538905242794</v>
       </c>
       <c r="L76">
-        <v>0.37539955051222218</v>
+        <v>0.37537090719455191</v>
       </c>
       <c r="M76">
         <v>0.016817884519758599</v>
       </c>
       <c r="N76">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O76">
+        <v>3396706</v>
+      </c>
+      <c r="P76">
         <v>276160.26963786938</v>
-      </c>
-      <c r="O76">
-        <v>0.74000000953674316</v>
-      </c>
-      <c r="P76">
-        <v>3396706</v>
-      </c>
-      <c r="Q76">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>33967</v>
+        <v>99307</v>
       </c>
       <c r="B77">
-        <v>99307</v>
+        <v>0.75</v>
       </c>
       <c r="C77">
         <v>102113.8495311166</v>
@@ -3787,24 +3556,21 @@
         <v>0.016454508266569499</v>
       </c>
       <c r="N77">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O77">
+        <v>3396706</v>
+      </c>
+      <c r="P77">
         <v>283346.81629309803</v>
-      </c>
-      <c r="O77">
-        <v>0.75</v>
-      </c>
-      <c r="P77">
-        <v>3396706</v>
-      </c>
-      <c r="Q77">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>33967</v>
+        <v>105099</v>
       </c>
       <c r="B78">
-        <v>105099</v>
+        <v>0.75999999046325684</v>
       </c>
       <c r="C78">
         <v>107904.83909658639</v>
@@ -3816,48 +3582,45 @@
         <v>0.51388111991050134</v>
       </c>
       <c r="F78">
-        <v>0.38525627815232433</v>
+        <v>0.38519739747401888</v>
       </c>
       <c r="G78">
         <v>0.21953660906173639</v>
       </c>
       <c r="H78">
-        <v>0.39220419819236318</v>
+        <v>0.39226307887066858</v>
       </c>
       <c r="I78">
         <v>0.0030029145935760999</v>
       </c>
       <c r="J78">
-        <v>0.58435806030866366</v>
+        <v>0.58429762819629905</v>
       </c>
       <c r="K78">
         <v>0.015400554262603</v>
       </c>
       <c r="L78">
-        <v>0.38514559496674988</v>
+        <v>0.38520602707911461</v>
       </c>
       <c r="M78">
         <v>0.0150957904767974</v>
       </c>
       <c r="N78">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O78">
+        <v>3396706</v>
+      </c>
+      <c r="P78">
         <v>290898.18064506695</v>
-      </c>
-      <c r="O78">
-        <v>0.75999999046325684</v>
-      </c>
-      <c r="P78">
-        <v>3396706</v>
-      </c>
-      <c r="Q78">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>33967</v>
+        <v>110826</v>
       </c>
       <c r="B79">
-        <v>110826</v>
+        <v>0.76999998092651367</v>
       </c>
       <c r="C79">
         <v>113851.9065736137</v>
@@ -3869,63 +3632,60 @@
         <v>0.49739452998498551</v>
       </c>
       <c r="F79">
-        <v>0.3898489710601466</v>
+        <v>0.38993729207760469</v>
       </c>
       <c r="G79">
-        <v>0.22760326198957809</v>
+        <v>0.22757382165042539</v>
       </c>
       <c r="H79">
-        <v>0.37913268760856123</v>
+        <v>0.37907380693025577</v>
       </c>
       <c r="I79">
         <v>0.0034150793417140001</v>
       </c>
       <c r="J79">
-        <v>0.59844628817451018</v>
+        <v>0.59850356360851231</v>
       </c>
       <c r="K79">
         <v>0.017500885049680101</v>
       </c>
       <c r="L79">
-        <v>0.36749419512940279</v>
+        <v>0.36743691969540082</v>
       </c>
       <c r="M79">
         <v>0.016558631657269202</v>
       </c>
       <c r="N79">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O79">
+        <v>3396706</v>
+      </c>
+      <c r="P79">
         <v>298854.40270222368</v>
-      </c>
-      <c r="O79">
-        <v>0.76999998092651367</v>
-      </c>
-      <c r="P79">
-        <v>3396706</v>
-      </c>
-      <c r="Q79">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>33967</v>
+        <v>117128</v>
       </c>
       <c r="B80">
-        <v>117128</v>
+        <v>0.77999997138977051</v>
       </c>
       <c r="C80">
         <v>120479.1408747829</v>
       </c>
       <c r="D80">
-        <v>0.52621662201548558</v>
+        <v>0.52624606235463833</v>
       </c>
       <c r="E80">
-        <v>0.47378337798451442</v>
+        <v>0.47375393764536172</v>
       </c>
       <c r="F80">
-        <v>0.40374481114022431</v>
+        <v>0.40371537080107162</v>
       </c>
       <c r="G80">
-        <v>0.24523802514204959</v>
+        <v>0.24526746548120229</v>
       </c>
       <c r="H80">
         <v>0.34707215827126331</v>
@@ -3946,33 +3706,30 @@
         <v>0.016536874420936001</v>
       </c>
       <c r="N80">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O80">
+        <v>3396706</v>
+      </c>
+      <c r="P80">
         <v>307263.59581854695</v>
-      </c>
-      <c r="O80">
-        <v>0.77999997138977051</v>
-      </c>
-      <c r="P80">
-        <v>3396706</v>
-      </c>
-      <c r="Q80">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>33967</v>
+        <v>124142</v>
       </c>
       <c r="B81">
-        <v>124142</v>
+        <v>0.79000002145767212</v>
       </c>
       <c r="C81">
         <v>127803.4798552179</v>
       </c>
       <c r="D81">
-        <v>0.52762975829481551</v>
+        <v>0.52760031795566287</v>
       </c>
       <c r="E81">
-        <v>0.47237024170518449</v>
+        <v>0.47239968204433708</v>
       </c>
       <c r="F81">
         <v>0.41131097830246999</v>
@@ -3999,24 +3756,21 @@
         <v>0.016979758801652801</v>
       </c>
       <c r="N81">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O81">
+        <v>3396706</v>
+      </c>
+      <c r="P81">
         <v>316158.08120364684</v>
-      </c>
-      <c r="O81">
-        <v>0.79000002145767212</v>
-      </c>
-      <c r="P81">
-        <v>3396706</v>
-      </c>
-      <c r="Q81">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>33967</v>
+        <v>131637</v>
       </c>
       <c r="B82">
-        <v>131637</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="C82">
         <v>135396.599221763</v>
@@ -4052,24 +3806,21 @@
         <v>0.018037812857085899</v>
       </c>
       <c r="N82">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O82">
+        <v>3396706</v>
+      </c>
+      <c r="P82">
         <v>325575.79740803037</v>
-      </c>
-      <c r="O82">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="P82">
-        <v>3396706</v>
-      </c>
-      <c r="Q82">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>33967</v>
+        <v>139483</v>
       </c>
       <c r="B83">
-        <v>139483</v>
+        <v>0.81000000238418579</v>
       </c>
       <c r="C83">
         <v>143479.21485789519</v>
@@ -4105,39 +3856,36 @@
         <v>0.019535259691298101</v>
       </c>
       <c r="N83">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O83">
+        <v>3396706</v>
+      </c>
+      <c r="P83">
         <v>335585.21338201279</v>
-      </c>
-      <c r="O83">
-        <v>0.81000000238418579</v>
-      </c>
-      <c r="P83">
-        <v>3396706</v>
-      </c>
-      <c r="Q83">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>33968</v>
+        <v>147688.609375</v>
       </c>
       <c r="B84">
-        <v>147688.609375</v>
+        <v>0.81999999284744263</v>
       </c>
       <c r="C84">
         <v>151693.95904325391</v>
       </c>
       <c r="D84">
-        <v>0.52952779086198776</v>
+        <v>0.52955723033443236</v>
       </c>
       <c r="E84">
-        <v>0.47047220913801219</v>
+        <v>0.47044276966556758</v>
       </c>
       <c r="F84">
-        <v>0.40614696184644372</v>
+        <v>0.40611752237399912</v>
       </c>
       <c r="G84">
-        <v>0.27964554875176639</v>
+        <v>0.279674988224211</v>
       </c>
       <c r="H84">
         <v>0.31120466321243517</v>
@@ -4158,33 +3906,30 @@
         <v>0.018948839756144999</v>
       </c>
       <c r="N84">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O84">
+        <v>3396706</v>
+      </c>
+      <c r="P84">
         <v>346257.75139984494</v>
-      </c>
-      <c r="O84">
-        <v>0.81999999284744263</v>
-      </c>
-      <c r="P84">
-        <v>3396706</v>
-      </c>
-      <c r="Q84">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>33967</v>
+        <v>155935</v>
       </c>
       <c r="B85">
-        <v>155935</v>
+        <v>0.82999998331069946</v>
       </c>
       <c r="C85">
         <v>160156.9112185172</v>
       </c>
       <c r="D85">
-        <v>0.5340477522301057</v>
+        <v>0.53401831189095295</v>
       </c>
       <c r="E85">
-        <v>0.4659522477698943</v>
+        <v>0.46598168810904711</v>
       </c>
       <c r="F85">
         <v>0.39635528601289488</v>
@@ -4199,36 +3944,33 @@
         <v>0.0032384373067978001</v>
       </c>
       <c r="J85">
-        <v>0.68748963818133879</v>
+        <v>0.68749616514364309</v>
       </c>
       <c r="K85">
         <v>0.0212683362637285</v>
       </c>
       <c r="L85">
-        <v>0.27471937188463141</v>
+        <v>0.27471284492232712</v>
       </c>
       <c r="M85">
         <v>0.016522653718699098</v>
       </c>
       <c r="N85">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O85">
+        <v>3396706</v>
+      </c>
+      <c r="P85">
         <v>357703.01730458759</v>
-      </c>
-      <c r="O85">
-        <v>0.82999998331069946</v>
-      </c>
-      <c r="P85">
-        <v>3396706</v>
-      </c>
-      <c r="Q85">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>33967</v>
+        <v>164674</v>
       </c>
       <c r="B86">
-        <v>164674</v>
+        <v>0.8399999737739563</v>
       </c>
       <c r="C86">
         <v>169271.02293540421</v>
@@ -4240,10 +3982,10 @@
         <v>0.46027026231342177</v>
       </c>
       <c r="F86">
-        <v>0.38484411340418639</v>
+        <v>0.38487355374333909</v>
       </c>
       <c r="G86">
-        <v>0.3106544587393647</v>
+        <v>0.31062501840021189</v>
       </c>
       <c r="H86">
         <v>0.30117466953219302</v>
@@ -4252,36 +3994,33 @@
         <v>0.0033267583242558999</v>
       </c>
       <c r="J86">
-        <v>0.68871332229835203</v>
+        <v>0.68870714676928524</v>
       </c>
       <c r="K86">
         <v>0.023387221038441101</v>
       </c>
       <c r="L86">
-        <v>0.27142898376601871</v>
+        <v>0.27143515929508538</v>
       </c>
       <c r="M86">
         <v>0.0164704729617762</v>
       </c>
       <c r="N86">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O86">
+        <v>3396706</v>
+      </c>
+      <c r="P86">
         <v>370049.648934967</v>
-      </c>
-      <c r="O86">
-        <v>0.8399999737739563</v>
-      </c>
-      <c r="P86">
-        <v>3396706</v>
-      </c>
-      <c r="Q86">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>33967</v>
+        <v>174168.9375</v>
       </c>
       <c r="B87">
-        <v>174168.9375</v>
+        <v>0.85000002384185791</v>
       </c>
       <c r="C87">
         <v>178937.2064563584</v>
@@ -4317,24 +4056,21 @@
         <v>0.015087793717066001</v>
       </c>
       <c r="N87">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O87">
+        <v>3396706</v>
+      </c>
+      <c r="P87">
         <v>383434.89066827117</v>
-      </c>
-      <c r="O87">
-        <v>0.85000002384185791</v>
-      </c>
-      <c r="P87">
-        <v>3396706</v>
-      </c>
-      <c r="Q87">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>33967</v>
+        <v>184178</v>
       </c>
       <c r="B88">
-        <v>184178</v>
+        <v>0.86000001430511475</v>
       </c>
       <c r="C88">
         <v>189491.72151509189</v>
@@ -4370,24 +4106,21 @@
         <v>0.018837716699032898</v>
       </c>
       <c r="N88">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O88">
+        <v>3396706</v>
+      </c>
+      <c r="P88">
         <v>398041.86811197922</v>
-      </c>
-      <c r="O88">
-        <v>0.86000001430511475</v>
-      </c>
-      <c r="P88">
-        <v>3396706</v>
-      </c>
-      <c r="Q88">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>33967</v>
+        <v>195243</v>
       </c>
       <c r="B89">
-        <v>195243</v>
+        <v>0.87000000476837158</v>
       </c>
       <c r="C89">
         <v>200967.9106582308</v>
@@ -4423,24 +4156,21 @@
         <v>0.019608866981286902</v>
       </c>
       <c r="N89">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O89">
+        <v>3396706</v>
+      </c>
+      <c r="P89">
         <v>414084.18708097056</v>
-      </c>
-      <c r="O89">
-        <v>0.87000000476837158</v>
-      </c>
-      <c r="P89">
-        <v>3396706</v>
-      </c>
-      <c r="Q89">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>33967</v>
+        <v>206972</v>
       </c>
       <c r="B90">
-        <v>206972</v>
+        <v>0.87999999523162842</v>
       </c>
       <c r="C90">
         <v>213103.4625960491</v>
@@ -4476,24 +4206,21 @@
         <v>0.020900815110199301</v>
       </c>
       <c r="N90">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O90">
+        <v>3396706</v>
+      </c>
+      <c r="P90">
         <v>431843.87678286555</v>
-      </c>
-      <c r="O90">
-        <v>0.87999999523162842</v>
-      </c>
-      <c r="P90">
-        <v>3396706</v>
-      </c>
-      <c r="Q90">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>33967</v>
+        <v>219571.65625</v>
       </c>
       <c r="B91">
-        <v>219571.65625</v>
+        <v>0.88999998569488525</v>
       </c>
       <c r="C91">
         <v>225853.36596733591</v>
@@ -4529,24 +4256,21 @@
         <v>0.020248814116016901</v>
       </c>
       <c r="N91">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O91">
+        <v>3396706</v>
+      </c>
+      <c r="P91">
         <v>451729.36898166704</v>
-      </c>
-      <c r="O91">
-        <v>0.88999998569488525</v>
-      </c>
-      <c r="P91">
-        <v>3396706</v>
-      </c>
-      <c r="Q91">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>33967</v>
+        <v>232779.453125</v>
       </c>
       <c r="B92">
-        <v>232779.453125</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="C92">
         <v>240148.74142090121</v>
@@ -4582,24 +4306,21 @@
         <v>0.021342234609658398</v>
       </c>
       <c r="N92">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O92">
+        <v>3396706</v>
+      </c>
+      <c r="P92">
         <v>474316.96928310016</v>
-      </c>
-      <c r="O92">
-        <v>0.89999997615814209</v>
-      </c>
-      <c r="P92">
-        <v>3396706</v>
-      </c>
-      <c r="Q92">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>33967</v>
+        <v>248005.59375</v>
       </c>
       <c r="B93">
-        <v>248005.59375</v>
+        <v>0.9100000262260437</v>
       </c>
       <c r="C93">
         <v>256369.326651143</v>
@@ -4635,24 +4356,21 @@
         <v>0.021770895863892002</v>
       </c>
       <c r="N93">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O93">
+        <v>3396706</v>
+      </c>
+      <c r="P93">
         <v>500335.66126778891</v>
-      </c>
-      <c r="O93">
-        <v>0.9100000262260437</v>
-      </c>
-      <c r="P93">
-        <v>3396706</v>
-      </c>
-      <c r="Q93">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>33967</v>
+        <v>265421.875</v>
       </c>
       <c r="B94">
-        <v>265421.875</v>
+        <v>0.92000001668930054</v>
       </c>
       <c r="C94">
         <v>275322.13590948569</v>
@@ -4688,24 +4406,21 @@
         <v>0.024991052967529601</v>
       </c>
       <c r="N94">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O94">
+        <v>3396706</v>
+      </c>
+      <c r="P94">
         <v>530831.45309486962</v>
-      </c>
-      <c r="O94">
-        <v>0.92000001668930054</v>
-      </c>
-      <c r="P94">
-        <v>3396706</v>
-      </c>
-      <c r="Q94">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>33967</v>
+        <v>286213.15625</v>
       </c>
       <c r="B95">
-        <v>286213.15625</v>
+        <v>0.93000000715255737</v>
       </c>
       <c r="C95">
         <v>297969.32796905818</v>
@@ -4741,24 +4456,21 @@
         <v>0.025356257656351699</v>
       </c>
       <c r="N95">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O95">
+        <v>3396706</v>
+      </c>
+      <c r="P95">
         <v>567332.78412135306</v>
-      </c>
-      <c r="O95">
-        <v>0.93000000715255737</v>
-      </c>
-      <c r="P95">
-        <v>3396706</v>
-      </c>
-      <c r="Q95">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>33967</v>
+        <v>310332.40625</v>
       </c>
       <c r="B96">
-        <v>310332.40625</v>
+        <v>0.93999999761581421</v>
       </c>
       <c r="C96">
         <v>323744.2057116098</v>
@@ -4794,24 +4506,21 @@
         <v>0.026903074053804599</v>
       </c>
       <c r="N96">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O96">
+        <v>3396706</v>
+      </c>
+      <c r="P96">
         <v>612226.69348006893</v>
-      </c>
-      <c r="O96">
-        <v>0.93999999761581421</v>
-      </c>
-      <c r="P96">
-        <v>3396706</v>
-      </c>
-      <c r="Q96">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>33967</v>
+        <v>339663.90625</v>
       </c>
       <c r="B97">
-        <v>339663.90625</v>
+        <v>0.94999998807907104</v>
       </c>
       <c r="C97">
         <v>359257.99591147288</v>
@@ -4847,24 +4556,21 @@
         <v>0.033559683728054797</v>
       </c>
       <c r="N97">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O97">
+        <v>3396706</v>
+      </c>
+      <c r="P97">
         <v>669923.19103376067</v>
-      </c>
-      <c r="O97">
-        <v>0.94999998807907104</v>
-      </c>
-      <c r="P97">
-        <v>3396706</v>
-      </c>
-      <c r="Q97">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>33967</v>
+        <v>381256.65625</v>
       </c>
       <c r="B98">
-        <v>381256.65625</v>
+        <v>0.95999997854232788</v>
       </c>
       <c r="C98">
         <v>409315.0240886375</v>
@@ -4900,24 +4606,21 @@
         <v>0.0386050594934296</v>
       </c>
       <c r="N98">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O98">
+        <v>3396706</v>
+      </c>
+      <c r="P98">
         <v>747589.48981433269</v>
-      </c>
-      <c r="O98">
-        <v>0.95999997854232788</v>
-      </c>
-      <c r="P98">
-        <v>3396706</v>
-      </c>
-      <c r="Q98">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>33967</v>
+        <v>439499.21875</v>
       </c>
       <c r="B99">
-        <v>439499.21875</v>
+        <v>0.97000002861022949</v>
       </c>
       <c r="C99">
         <v>484922.24602739431</v>
@@ -4953,24 +4656,21 @@
         <v>0.0521844487070715</v>
       </c>
       <c r="N99">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O99">
+        <v>3396706</v>
+      </c>
+      <c r="P99">
         <v>860347.64505623106</v>
-      </c>
-      <c r="O99">
-        <v>0.97000002861022949</v>
-      </c>
-      <c r="P99">
-        <v>3396706</v>
-      </c>
-      <c r="Q99">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>33967</v>
+        <v>541506</v>
       </c>
       <c r="B100">
-        <v>541506</v>
+        <v>0.98000001907348633</v>
       </c>
       <c r="C100">
         <v>628134.07175346662</v>
@@ -5006,24 +4706,21 @@
         <v>0.063177159440797701</v>
       </c>
       <c r="N100">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O100">
+        <v>3396706</v>
+      </c>
+      <c r="P100">
         <v>1048060.3445706494</v>
-      </c>
-      <c r="O100">
-        <v>0.98000001907348633</v>
-      </c>
-      <c r="P100">
-        <v>3396706</v>
-      </c>
-      <c r="Q100">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>3397</v>
+        <v>742009</v>
       </c>
       <c r="B101">
-        <v>742009</v>
+        <v>0.99000000953674316</v>
       </c>
       <c r="C101">
         <v>758898.35271931114</v>
@@ -5059,24 +4756,21 @@
         <v>0.080454811381112296</v>
       </c>
       <c r="N101">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O101">
+        <v>3396706</v>
+      </c>
+      <c r="P101">
         <v>1467986.6173878324</v>
-      </c>
-      <c r="O101">
-        <v>0.99000000953674316</v>
-      </c>
-      <c r="P101">
-        <v>3396706</v>
-      </c>
-      <c r="Q101">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>3397</v>
+        <v>776993.0625</v>
       </c>
       <c r="B102">
-        <v>776993.0625</v>
+        <v>0.99099999666213989</v>
       </c>
       <c r="C102">
         <v>796187.14820061822</v>
@@ -5112,24 +4806,21 @@
         <v>0.074516231898378193</v>
       </c>
       <c r="N102">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O102">
+        <v>3396706</v>
+      </c>
+      <c r="P102">
         <v>1546781.9342042853</v>
-      </c>
-      <c r="O102">
-        <v>0.99099999666213989</v>
-      </c>
-      <c r="P102">
-        <v>3396706</v>
-      </c>
-      <c r="Q102">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>3397</v>
+        <v>816570.8125</v>
       </c>
       <c r="B103">
-        <v>816570.8125</v>
+        <v>0.99199998378753662</v>
       </c>
       <c r="C103">
         <v>840463.19927509571</v>
@@ -5165,24 +4856,21 @@
         <v>0.090372103753331004</v>
       </c>
       <c r="N103">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O103">
+        <v>3396706</v>
+      </c>
+      <c r="P103">
         <v>1640616.6410108379</v>
-      </c>
-      <c r="O103">
-        <v>0.99199998378753662</v>
-      </c>
-      <c r="P103">
-        <v>3396706</v>
-      </c>
-      <c r="Q103">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>3396</v>
+        <v>866241.375</v>
       </c>
       <c r="B104">
-        <v>866241.375</v>
+        <v>0.99299997091293335</v>
       </c>
       <c r="C104">
         <v>893403.36662617791</v>
@@ -5218,24 +4906,21 @@
         <v>0.093592216848584694</v>
       </c>
       <c r="N104">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O104">
+        <v>3396706</v>
+      </c>
+      <c r="P104">
         <v>1754938.6986141487</v>
-      </c>
-      <c r="O104">
-        <v>0.99299997091293335</v>
-      </c>
-      <c r="P104">
-        <v>3396706</v>
-      </c>
-      <c r="Q104">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>3397</v>
+        <v>921316</v>
       </c>
       <c r="B105">
-        <v>921316</v>
+        <v>0.99400001764297485</v>
       </c>
       <c r="C105">
         <v>956335.44344274362</v>
@@ -5271,24 +4956,21 @@
         <v>0.10703691023735321</v>
       </c>
       <c r="N105">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O105">
+        <v>3396706</v>
+      </c>
+      <c r="P105">
         <v>1898499.7382329491</v>
-      </c>
-      <c r="O105">
-        <v>0.99400001764297485</v>
-      </c>
-      <c r="P105">
-        <v>3396706</v>
-      </c>
-      <c r="Q105">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>3397</v>
+        <v>996469.25</v>
       </c>
       <c r="B106">
-        <v>996469.25</v>
+        <v>0.99500000476837158</v>
       </c>
       <c r="C106">
         <v>1046257.399046953</v>
@@ -5324,24 +5006,21 @@
         <v>0.1180817895453953</v>
       </c>
       <c r="N106">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O106">
+        <v>3396706</v>
+      </c>
+      <c r="P106">
         <v>2086954.7879533945</v>
-      </c>
-      <c r="O106">
-        <v>0.99500000476837158</v>
-      </c>
-      <c r="P106">
-        <v>3396706</v>
-      </c>
-      <c r="Q106">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>3396</v>
+        <v>1103263.375</v>
       </c>
       <c r="B107">
-        <v>1103263.375</v>
+        <v>0.99599999189376831</v>
       </c>
       <c r="C107">
         <v>1173545.3033348061</v>
@@ -5377,24 +5056,21 @@
         <v>0.1326443732066169</v>
       </c>
       <c r="N107">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O107">
+        <v>3396706</v>
+      </c>
+      <c r="P107">
         <v>2347167.4355402621</v>
-      </c>
-      <c r="O107">
-        <v>0.99599999189376831</v>
-      </c>
-      <c r="P107">
-        <v>3396706</v>
-      </c>
-      <c r="Q107">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>3397</v>
+        <v>1257177.25</v>
       </c>
       <c r="B108">
-        <v>1257177.25</v>
+        <v>0.99699997901916504</v>
       </c>
       <c r="C108">
         <v>1376154.733183692</v>
@@ -5430,24 +5106,21 @@
         <v>0.1512509152730957</v>
       </c>
       <c r="N108">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O108">
+        <v>3396706</v>
+      </c>
+      <c r="P108">
         <v>2738298.0303361136</v>
-      </c>
-      <c r="O108">
-        <v>0.99699997901916504</v>
-      </c>
-      <c r="P108">
-        <v>3396706</v>
-      </c>
-      <c r="Q108">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>3397</v>
+        <v>1529140.375</v>
       </c>
       <c r="B109">
-        <v>1529140.375</v>
+        <v>0.99800002574920654</v>
       </c>
       <c r="C109">
         <v>1791450.386002355</v>
@@ -5483,24 +5156,21 @@
         <v>0.20269517781865129</v>
       </c>
       <c r="N109">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O109">
+        <v>3396706</v>
+      </c>
+      <c r="P109">
         <v>3419469.9397173561</v>
-      </c>
-      <c r="O109">
-        <v>0.99800002574920654</v>
-      </c>
-      <c r="P109">
-        <v>3396706</v>
-      </c>
-      <c r="Q109">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>339</v>
+        <v>2163171.25</v>
       </c>
       <c r="B110">
-        <v>2163171.25</v>
+        <v>0.99900001287460327</v>
       </c>
       <c r="C110">
         <v>2224495.351032448</v>
@@ -5536,24 +5206,21 @@
         <v>0.28523871282579721</v>
       </c>
       <c r="N110">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O110">
+        <v>3396706</v>
+      </c>
+      <c r="P110">
         <v>5047968.8867049469</v>
-      </c>
-      <c r="O110">
-        <v>0.99900001287460327</v>
-      </c>
-      <c r="P110">
-        <v>3396706</v>
-      </c>
-      <c r="Q110">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>340</v>
+        <v>2291393.75</v>
       </c>
       <c r="B111">
-        <v>2291393.75</v>
+        <v>0.99910002946853638</v>
       </c>
       <c r="C111">
         <v>2364136.3352941182</v>
@@ -5589,24 +5256,21 @@
         <v>0.27921610739329761</v>
       </c>
       <c r="N111">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O111">
+        <v>3396706</v>
+      </c>
+      <c r="P111">
         <v>5361072.4289335953</v>
-      </c>
-      <c r="O111">
-        <v>0.99910002946853638</v>
-      </c>
-      <c r="P111">
-        <v>3396706</v>
-      </c>
-      <c r="Q111">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>340</v>
+        <v>2437340.5</v>
       </c>
       <c r="B112">
-        <v>2437340.5</v>
+        <v>0.99919998645782471</v>
       </c>
       <c r="C112">
         <v>2518104.6992647061</v>
@@ -5642,24 +5306,21 @@
         <v>0.24734860849277621</v>
       </c>
       <c r="N112">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O112">
+        <v>3396706</v>
+      </c>
+      <c r="P112">
         <v>5736103.0773831429</v>
-      </c>
-      <c r="O112">
-        <v>0.99919998645782471</v>
-      </c>
-      <c r="P112">
-        <v>3396706</v>
-      </c>
-      <c r="Q112">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>339</v>
+        <v>2608886.25</v>
       </c>
       <c r="B113">
-        <v>2608886.25</v>
+        <v>0.99930000305175781</v>
       </c>
       <c r="C113">
         <v>2705426.7241887911</v>
@@ -5695,24 +5356,21 @@
         <v>0.2642672029164197</v>
       </c>
       <c r="N113">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O113">
+        <v>3396706</v>
+      </c>
+      <c r="P113">
         <v>6196397.3342448464</v>
-      </c>
-      <c r="O113">
-        <v>0.99930000305175781</v>
-      </c>
-      <c r="P113">
-        <v>3396706</v>
-      </c>
-      <c r="Q113">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>340</v>
+        <v>2805951.25</v>
       </c>
       <c r="B114">
-        <v>2805951.25</v>
+        <v>0.99940001964569092</v>
       </c>
       <c r="C114">
         <v>2929815.0647058822</v>
@@ -5748,24 +5406,21 @@
         <v>0.30965680538620183</v>
       </c>
       <c r="N114">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O114">
+        <v>3396706</v>
+      </c>
+      <c r="P114">
         <v>6777083.8096172716</v>
-      </c>
-      <c r="O114">
-        <v>0.99940001964569092</v>
-      </c>
-      <c r="P114">
-        <v>3396706</v>
-      </c>
-      <c r="Q114">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>340</v>
+        <v>3075647</v>
       </c>
       <c r="B115">
-        <v>3075647</v>
+        <v>0.99949997663497925</v>
       </c>
       <c r="C115">
         <v>3255921.2698529409</v>
@@ -5801,24 +5456,21 @@
         <v>0.33701683892768941</v>
       </c>
       <c r="N115">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O115">
+        <v>3396706</v>
+      </c>
+      <c r="P115">
         <v>7547443.8645465253</v>
-      </c>
-      <c r="O115">
-        <v>0.99949997663497925</v>
-      </c>
-      <c r="P115">
-        <v>3396706</v>
-      </c>
-      <c r="Q115">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>339</v>
+        <v>3462898.75</v>
       </c>
       <c r="B116">
-        <v>3462898.75</v>
+        <v>0.99959999322891235</v>
       </c>
       <c r="C116">
         <v>3758918.8473451328</v>
@@ -5854,24 +5506,21 @@
         <v>0.398824305284814</v>
       </c>
       <c r="N116">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O116">
+        <v>3396706</v>
+      </c>
+      <c r="P116">
         <v>8621904.6025405005</v>
-      </c>
-      <c r="O116">
-        <v>0.99959999322891235</v>
-      </c>
-      <c r="P116">
-        <v>3396706</v>
-      </c>
-      <c r="Q116">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>340</v>
+        <v>4073504</v>
       </c>
       <c r="B117">
-        <v>4073504</v>
+        <v>0.99970000982284546</v>
       </c>
       <c r="C117">
         <v>4482297.8470588233</v>
@@ -5907,24 +5556,21 @@
         <v>0.39532713013731241</v>
       </c>
       <c r="N117">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O117">
+        <v>3396706</v>
+      </c>
+      <c r="P117">
         <v>10239718.313052012</v>
-      </c>
-      <c r="O117">
-        <v>0.99970000982284546</v>
-      </c>
-      <c r="P117">
-        <v>3396706</v>
-      </c>
-      <c r="Q117">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>340</v>
+        <v>4958483.5</v>
       </c>
       <c r="B118">
-        <v>4958483.5</v>
+        <v>0.99980002641677856</v>
       </c>
       <c r="C118">
         <v>5899292.4558823528</v>
@@ -5960,24 +5606,21 @@
         <v>0.59272605390525501</v>
       </c>
       <c r="N118">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O118">
+        <v>3396706</v>
+      </c>
+      <c r="P118">
         <v>13122668.17820324</v>
-      </c>
-      <c r="O118">
-        <v>0.99980002641677856</v>
-      </c>
-      <c r="P118">
-        <v>3396706</v>
-      </c>
-      <c r="Q118">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>34</v>
+        <v>7130926.5</v>
       </c>
       <c r="B119">
-        <v>7130926.5</v>
+        <v>0.99989998340606689</v>
       </c>
       <c r="C119">
         <v>7263672.1029411769</v>
@@ -6013,24 +5656,21 @@
         <v>0.49282009981377289</v>
       </c>
       <c r="N119">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O119">
+        <v>3396706</v>
+      </c>
+      <c r="P119">
         <v>20367351.793510325</v>
-      </c>
-      <c r="O119">
-        <v>0.99989998340606689</v>
-      </c>
-      <c r="P119">
-        <v>3396706</v>
-      </c>
-      <c r="Q119">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>34</v>
+        <v>7437135.5</v>
       </c>
       <c r="B120">
-        <v>7437135.5</v>
+        <v>0.99990999698638916</v>
       </c>
       <c r="C120">
         <v>7638931.7352941176</v>
@@ -6066,24 +5706,21 @@
         <v>0.59762464069095755</v>
       </c>
       <c r="N120">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O120">
+        <v>3396706</v>
+      </c>
+      <c r="P120">
         <v>21828089.857377049</v>
-      </c>
-      <c r="O120">
-        <v>0.99990999698638916</v>
-      </c>
-      <c r="P120">
-        <v>3396706</v>
-      </c>
-      <c r="Q120">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>34</v>
+        <v>7851684</v>
       </c>
       <c r="B121">
-        <v>7851684</v>
+        <v>0.99992001056671143</v>
       </c>
       <c r="C121">
         <v>8120484.176470588</v>
@@ -6119,24 +5756,21 @@
         <v>0.72964043159597169</v>
       </c>
       <c r="N121">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O121">
+        <v>3396706</v>
+      </c>
+      <c r="P121">
         <v>23608279.437269371</v>
-      </c>
-      <c r="O121">
-        <v>0.99992001056671143</v>
-      </c>
-      <c r="P121">
-        <v>3396706</v>
-      </c>
-      <c r="Q121">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>34</v>
+        <v>8368198.5</v>
       </c>
       <c r="B122">
-        <v>8368198.5</v>
+        <v>0.99993002414703369</v>
       </c>
       <c r="C122">
         <v>8722502.3382352944</v>
@@ -6172,24 +5806,21 @@
         <v>0.66668001952898781</v>
       </c>
       <c r="N122">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O122">
+        <v>3396706</v>
+      </c>
+      <c r="P122">
         <v>25830157.238396626</v>
-      </c>
-      <c r="O122">
-        <v>0.99993002414703369</v>
-      </c>
-      <c r="P122">
-        <v>3396706</v>
-      </c>
-      <c r="Q122">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>34</v>
+        <v>9076902</v>
       </c>
       <c r="B123">
-        <v>9076902</v>
+        <v>0.99993997812271118</v>
       </c>
       <c r="C123">
         <v>9747659.4117647056</v>
@@ -6225,24 +5856,21 @@
         <v>0.72380285919446574</v>
       </c>
       <c r="N123">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O123">
+        <v>3396706</v>
+      </c>
+      <c r="P123">
         <v>28695478.748768471</v>
-      </c>
-      <c r="O123">
-        <v>0.99993997812271118</v>
-      </c>
-      <c r="P123">
-        <v>3396706</v>
-      </c>
-      <c r="Q123">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>34</v>
+        <v>10349811</v>
       </c>
       <c r="B124">
-        <v>10349811</v>
+        <v>0.99994999170303345</v>
       </c>
       <c r="C124">
         <v>11051881.882352941</v>
@@ -6278,24 +5906,21 @@
         <v>0.65476471287760751</v>
       </c>
       <c r="N124">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O124">
+        <v>3396706</v>
+      </c>
+      <c r="P124">
         <v>32507466.071005918</v>
-      </c>
-      <c r="O124">
-        <v>0.99994999170303345</v>
-      </c>
-      <c r="P124">
-        <v>3396706</v>
-      </c>
-      <c r="Q124">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>34</v>
+        <v>11773636</v>
       </c>
       <c r="B125">
-        <v>11773636</v>
+        <v>0.99996000528335571</v>
       </c>
       <c r="C125">
         <v>12925633.029411759</v>
@@ -6331,24 +5956,21 @@
         <v>0.89553320412862913</v>
       </c>
       <c r="N125">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O125">
+        <v>3396706</v>
+      </c>
+      <c r="P125">
         <v>37911094.681481481</v>
-      </c>
-      <c r="O125">
-        <v>0.99996000528335571</v>
-      </c>
-      <c r="P125">
-        <v>3396706</v>
-      </c>
-      <c r="Q125">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>34</v>
+        <v>14364438</v>
       </c>
       <c r="B126">
-        <v>14364438</v>
+        <v>0.99997001886367798</v>
       </c>
       <c r="C126">
         <v>15909015.26470588</v>
@@ -6384,24 +6006,21 @@
         <v>0.84971738541229969</v>
       </c>
       <c r="N126">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O126">
+        <v>3396706</v>
+      </c>
+      <c r="P126">
         <v>46322042.168316834</v>
-      </c>
-      <c r="O126">
-        <v>0.99997001886367798</v>
-      </c>
-      <c r="P126">
-        <v>3396706</v>
-      </c>
-      <c r="Q126">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>34</v>
+        <v>17947850</v>
       </c>
       <c r="B127">
-        <v>17947850</v>
+        <v>0.99997997283935547</v>
       </c>
       <c r="C127">
         <v>23100898.176470589</v>
@@ -6437,24 +6056,21 @@
         <v>0.78843387963454648</v>
       </c>
       <c r="N127">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O127">
+        <v>3396706</v>
+      </c>
+      <c r="P127">
         <v>61755518.507462688</v>
-      </c>
-      <c r="O127">
-        <v>0.99997997283935547</v>
-      </c>
-      <c r="P127">
-        <v>3396706</v>
-      </c>
-      <c r="Q127">
-        <v>83348.786658917903</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>33</v>
+        <v>28208639</v>
       </c>
       <c r="B128">
-        <v>28208639</v>
+        <v>0.99998998641967773</v>
       </c>
       <c r="C128">
         <v>101581490.969697</v>
@@ -6490,16 +6106,13 @@
         <v>0.94576201223943324</v>
       </c>
       <c r="N128">
+        <v>83348.786658917903</v>
+      </c>
+      <c r="O128">
+        <v>3396706</v>
+      </c>
+      <c r="P128">
         <v>101581490.96969697</v>
-      </c>
-      <c r="O128">
-        <v>0.99998998641967773</v>
-      </c>
-      <c r="P128">
-        <v>3396706</v>
-      </c>
-      <c r="Q128">
-        <v>83348.786658917903</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/admin_data/URY/gpinter_URY_2010.xlsx
+++ b/input_data/admin_data/URY/gpinter_URY_2010.xlsx
@@ -2232,10 +2232,10 @@
         <v>0.84331851502929311</v>
       </c>
       <c r="F51">
-        <v>0.20019430623840789</v>
+        <v>0.2001648658992552</v>
       </c>
       <c r="G51">
-        <v>0.11711366914946859</v>
+        <v>0.11714310948862131</v>
       </c>
       <c r="H51">
         <v>0.0429534548237996</v>
@@ -2276,10 +2276,10 @@
         <v>2467.2049680144728</v>
       </c>
       <c r="D52">
-        <v>0.50706547338671693</v>
+        <v>0.50703603391427221</v>
       </c>
       <c r="E52">
-        <v>0.49293452661328307</v>
+        <v>0.49296396608572779</v>
       </c>
       <c r="F52">
         <v>0.53512129062647196</v>
@@ -2294,13 +2294,13 @@
         <v>0.0051519076778143999</v>
       </c>
       <c r="J52">
-        <v>0.72282963908950348</v>
+        <v>0.72277780510328926</v>
       </c>
       <c r="K52">
         <v>0.016417998730130001</v>
       </c>
       <c r="L52">
-        <v>0.13891999916867079</v>
+        <v>0.13897183315488501</v>
       </c>
       <c r="M52">
         <v>0.1218323630083729</v>
@@ -2326,10 +2326,10 @@
         <v>6431.7113556448166</v>
       </c>
       <c r="D53">
-        <v>0.39497159007271759</v>
+        <v>0.39500103041187029</v>
       </c>
       <c r="E53">
-        <v>0.60502840992728235</v>
+        <v>0.60499896958812971</v>
       </c>
       <c r="F53">
         <v>0.54923896723290255</v>
@@ -2338,19 +2338,19 @@
         <v>0.29834839697353321</v>
       </c>
       <c r="H53">
-        <v>0.14620072423234309</v>
+        <v>0.14617128389319051</v>
       </c>
       <c r="I53">
-        <v>0.0062119115612212002</v>
+        <v>0.0062413519003738996</v>
       </c>
       <c r="J53">
-        <v>0.73343953881675938</v>
+        <v>0.73342031842932798</v>
       </c>
       <c r="K53">
         <v>0.016542365853760101</v>
       </c>
       <c r="L53">
-        <v>0.21008062895489099</v>
+        <v>0.2100998493423224</v>
       </c>
       <c r="M53">
         <v>0.039937466371516302</v>
@@ -2376,31 +2376,31 @@
         <v>10826.51636281975</v>
       </c>
       <c r="D54">
-        <v>0.38578620425707311</v>
+        <v>0.38581564459622569</v>
       </c>
       <c r="E54">
-        <v>0.614213795742927</v>
+        <v>0.61418435540377425</v>
       </c>
       <c r="F54">
-        <v>0.50708040156622602</v>
+        <v>0.50713928224453142</v>
       </c>
       <c r="G54">
-        <v>0.31024229399122683</v>
+        <v>0.31018341331292137</v>
       </c>
       <c r="H54">
-        <v>0.17752524509082351</v>
+        <v>0.17755468542997621</v>
       </c>
       <c r="I54">
-        <v>0.0051520593517237001</v>
+        <v>0.0051226190125709999</v>
       </c>
       <c r="J54">
-        <v>0.70032310248973129</v>
+        <v>0.70038159422187785</v>
       </c>
       <c r="K54">
         <v>0.0166583319234598</v>
       </c>
       <c r="L54">
-        <v>0.25281484370709362</v>
+        <v>0.252756351974947</v>
       </c>
       <c r="M54">
         <v>0.0302037218881697</v>
@@ -2426,16 +2426,16 @@
         <v>15543.048889248201</v>
       </c>
       <c r="D55">
-        <v>0.42723820178408461</v>
+        <v>0.42720876144493192</v>
       </c>
       <c r="E55">
-        <v>0.57276179821591544</v>
+        <v>0.57279123855506819</v>
       </c>
       <c r="F55">
-        <v>0.53110371831483494</v>
+        <v>0.53104483763652954</v>
       </c>
       <c r="G55">
-        <v>0.28954573556687369</v>
+        <v>0.28960461624517908</v>
       </c>
       <c r="H55">
         <v>0.17340359760944449</v>
@@ -2444,13 +2444,13 @@
         <v>0.0059469485088468003</v>
       </c>
       <c r="J55">
-        <v>0.73482162901937631</v>
+        <v>0.7347970680159005</v>
       </c>
       <c r="K55">
         <v>0.0197525113201765</v>
       </c>
       <c r="L55">
-        <v>0.21654176419748081</v>
+        <v>0.21656632520095659</v>
       </c>
       <c r="M55">
         <v>0.0288840954622149</v>
@@ -2482,10 +2482,10 @@
         <v>0.6008184414284452</v>
       </c>
       <c r="F56">
-        <v>0.50566726528689609</v>
+        <v>0.50569670562604885</v>
       </c>
       <c r="G56">
-        <v>0.30382430005593658</v>
+        <v>0.30379485971678388</v>
       </c>
       <c r="H56">
         <v>0.1848558895398475</v>
@@ -2576,16 +2576,16 @@
         <v>30426.342930673061</v>
       </c>
       <c r="D58">
-        <v>0.41081049253687402</v>
+        <v>0.41083993287602671</v>
       </c>
       <c r="E58">
-        <v>0.58918950746312593</v>
+        <v>0.58916006712397329</v>
       </c>
       <c r="F58">
-        <v>0.47287072747078052</v>
+        <v>0.47290016780993321</v>
       </c>
       <c r="G58">
-        <v>0.27747519651426378</v>
+        <v>0.27744575617511108</v>
       </c>
       <c r="H58">
         <v>0.2446786586981482</v>
@@ -2626,19 +2626,19 @@
         <v>35555.181213682583</v>
       </c>
       <c r="D59">
-        <v>0.40645332234227338</v>
+        <v>0.40642388200312068</v>
       </c>
       <c r="E59">
-        <v>0.59354667765772662</v>
+        <v>0.59357611799687926</v>
       </c>
       <c r="F59">
-        <v>0.46860187829363792</v>
+        <v>0.46857243795448522</v>
       </c>
       <c r="G59">
-        <v>0.28312774163158361</v>
+        <v>0.283186622309889</v>
       </c>
       <c r="H59">
-        <v>0.24338328377542909</v>
+        <v>0.24335384343627639</v>
       </c>
       <c r="I59">
         <v>0.0048870962993493999</v>
@@ -2676,31 +2676,31 @@
         <v>39773.831149304839</v>
       </c>
       <c r="D60">
-        <v>0.37106603468071953</v>
+        <v>0.37183148349868989</v>
       </c>
       <c r="E60">
-        <v>0.62893396531928047</v>
+        <v>0.62816851650131011</v>
       </c>
       <c r="F60">
-        <v>0.2141784673359437</v>
+        <v>0.21409014631848561</v>
       </c>
       <c r="G60">
-        <v>0.13489563399770371</v>
+        <v>0.13466011128448199</v>
       </c>
       <c r="H60">
-        <v>0.64851179085583066</v>
+        <v>0.64883563458651039</v>
       </c>
       <c r="I60">
         <v>0.0024141078105220002</v>
       </c>
       <c r="J60">
-        <v>0.31137818809593121</v>
+        <v>0.31140800161768978</v>
       </c>
       <c r="K60">
         <v>0.0070466154974775999</v>
       </c>
       <c r="L60">
-        <v>0.67301285024934554</v>
+        <v>0.67298303672758686</v>
       </c>
       <c r="M60">
         <v>0.0085623461637961001</v>
@@ -2726,31 +2726,31 @@
         <v>41968.286764198521</v>
       </c>
       <c r="D61">
-        <v>0.41240027085112019</v>
+        <v>0.41160538169399707</v>
       </c>
       <c r="E61">
-        <v>0.58759972914887981</v>
+        <v>0.58839461830600293</v>
       </c>
       <c r="F61">
-        <v>0.3441281243559926</v>
+        <v>0.344187005034298</v>
       </c>
       <c r="G61">
-        <v>0.2075249506874319</v>
+        <v>0.2077310330615009</v>
       </c>
       <c r="H61">
-        <v>0.44531457002384672</v>
+        <v>0.44504960697147228</v>
       </c>
       <c r="I61">
         <v>0.0030323549327288001</v>
       </c>
       <c r="J61">
-        <v>0.50172273051543137</v>
+        <v>0.50163277282348473</v>
       </c>
       <c r="K61">
         <v>0.0117397665512546</v>
       </c>
       <c r="L61">
-        <v>0.4701590535132969</v>
+        <v>0.47024901120524359</v>
       </c>
       <c r="M61">
         <v>0.0163784494261262</v>
@@ -2776,31 +2776,31 @@
         <v>46037.763717013018</v>
       </c>
       <c r="D62">
-        <v>0.4324785821532664</v>
+        <v>0.4325080224924191</v>
       </c>
       <c r="E62">
-        <v>0.5675214178467336</v>
+        <v>0.56749197750758085</v>
       </c>
       <c r="F62">
-        <v>0.36826920246121242</v>
+        <v>0.36829864280036512</v>
       </c>
       <c r="G62">
         <v>0.22598404333617919</v>
       </c>
       <c r="H62">
-        <v>0.40212559248682539</v>
+        <v>0.40209615214767269</v>
       </c>
       <c r="I62">
         <v>0.0036211617157830001</v>
       </c>
       <c r="J62">
-        <v>0.5407993089298867</v>
+        <v>0.54085555780087424</v>
       </c>
       <c r="K62">
         <v>0.012949138598724</v>
       </c>
       <c r="L62">
-        <v>0.43005151690876181</v>
+        <v>0.42999526803777433</v>
       </c>
       <c r="M62">
         <v>0.016200035541391201</v>
@@ -2826,19 +2826,19 @@
         <v>49853.812471709673</v>
       </c>
       <c r="D63">
-        <v>0.46907292372008119</v>
+        <v>0.46910236405923389</v>
       </c>
       <c r="E63">
-        <v>0.53092707627991875</v>
+        <v>0.530897635940766</v>
       </c>
       <c r="F63">
-        <v>0.3056201607442518</v>
+        <v>0.30582624311832068</v>
       </c>
       <c r="G63">
-        <v>0.19913445402891039</v>
+        <v>0.19922277504636851</v>
       </c>
       <c r="H63">
-        <v>0.49197750758088732</v>
+        <v>0.49168310418936029</v>
       </c>
       <c r="I63">
         <v>0.0032678776459504999</v>
@@ -2876,31 +2876,31 @@
         <v>51965.956385632562</v>
       </c>
       <c r="D64">
-        <v>0.41914210851709011</v>
+        <v>0.41925986987370101</v>
       </c>
       <c r="E64">
-        <v>0.58085789148290989</v>
+        <v>0.5807401301262991</v>
       </c>
       <c r="F64">
-        <v>0.22094974534106629</v>
+        <v>0.2199193334707216</v>
       </c>
       <c r="G64">
-        <v>0.22315777077751939</v>
+        <v>0.2253363558748197</v>
       </c>
       <c r="H64">
-        <v>0.55462654929784794</v>
+        <v>0.55347837607089234</v>
       </c>
       <c r="I64">
         <v>0.0012659345835664001</v>
       </c>
       <c r="J64">
-        <v>0.1890997451582864</v>
+        <v>0.18912967160597571</v>
       </c>
       <c r="K64">
         <v>0.0042700699501664998</v>
       </c>
       <c r="L64">
-        <v>0.80118196469844194</v>
+        <v>0.80115203825075265</v>
       </c>
       <c r="M64">
         <v>0.0054482201907188003</v>
@@ -2926,31 +2926,31 @@
         <v>52885.051853982361</v>
       </c>
       <c r="D65">
-        <v>0.47973032649336123</v>
+        <v>0.47961256513675038</v>
       </c>
       <c r="E65">
-        <v>0.52026967350663877</v>
+        <v>0.52038743486324956</v>
       </c>
       <c r="F65">
-        <v>0.36014366885506521</v>
+        <v>0.36099743869049372</v>
       </c>
       <c r="G65">
-        <v>0.36491300379780373</v>
+        <v>0.36261665734389259</v>
       </c>
       <c r="H65">
-        <v>0.27441340124238228</v>
+        <v>0.27585597786086502</v>
       </c>
       <c r="I65">
         <v>0.00052992610474869996</v>
       </c>
       <c r="J65">
-        <v>0.1215541623810087</v>
+        <v>0.1215247560285352</v>
       </c>
       <c r="K65">
         <v>0.0019149614500271999</v>
       </c>
       <c r="L65">
-        <v>0.87420372559590143</v>
+        <v>0.87423313194837504</v>
       </c>
       <c r="M65">
         <v>0.0023271505690319002</v>
@@ -2976,16 +2976,16 @@
         <v>55239.179422996953</v>
       </c>
       <c r="D66">
-        <v>0.40677716607295322</v>
+        <v>0.40689492742956401</v>
       </c>
       <c r="E66">
-        <v>0.59322283392704689</v>
+        <v>0.59310507257043599</v>
       </c>
       <c r="F66">
-        <v>0.23337356846350871</v>
+        <v>0.23334412812435601</v>
       </c>
       <c r="G66">
-        <v>0.1486148320428651</v>
+        <v>0.1486442723820178</v>
       </c>
       <c r="H66">
         <v>0.61583301439632587</v>
@@ -3026,31 +3026,31 @@
         <v>57777.931692088103</v>
       </c>
       <c r="D67">
-        <v>0.46047634468749082</v>
+        <v>0.46029970265257458</v>
       </c>
       <c r="E67">
-        <v>0.53952365531250912</v>
+        <v>0.53970029734742542</v>
       </c>
       <c r="F67">
-        <v>0.34086024671004211</v>
+        <v>0.34083080637088942</v>
       </c>
       <c r="G67">
         <v>0.2061412547472547</v>
       </c>
       <c r="H67">
-        <v>0.45014278564489058</v>
+        <v>0.45017222598404327</v>
       </c>
       <c r="I67">
         <v>0.0028557128978126001</v>
       </c>
       <c r="J67">
-        <v>0.50704407091547599</v>
+        <v>0.50701359362156506</v>
       </c>
       <c r="K67">
         <v>0.011388486442021801</v>
       </c>
       <c r="L67">
-        <v>0.4675282250097329</v>
+        <v>0.46755870230364383</v>
       </c>
       <c r="M67">
         <v>0.014039217622228701</v>
@@ -3076,10 +3076,10 @@
         <v>61918.78640286436</v>
       </c>
       <c r="D68">
-        <v>0.48679600789001087</v>
+        <v>0.48682544822916363</v>
       </c>
       <c r="E68">
-        <v>0.51320399210998913</v>
+        <v>0.51317455177083637</v>
       </c>
       <c r="F68">
         <v>0.36732711160832571</v>
@@ -3094,13 +3094,13 @@
         <v>0.0036506020549356998</v>
       </c>
       <c r="J68">
-        <v>0.54864764123373766</v>
+        <v>0.5486459091074839</v>
       </c>
       <c r="K68">
         <v>0.0111908063977799</v>
       </c>
       <c r="L68">
-        <v>0.42355805717504852</v>
+        <v>0.42355978930130228</v>
       </c>
       <c r="M68">
         <v>0.0166034951937402</v>
@@ -3132,25 +3132,25 @@
         <v>0.50431300968587156</v>
       </c>
       <c r="F69">
-        <v>0.38337209644655112</v>
+        <v>0.38340153678570382</v>
       </c>
       <c r="G69">
         <v>0.22515971383990341</v>
       </c>
       <c r="H69">
-        <v>0.38820031206759498</v>
+        <v>0.38817087172844228</v>
       </c>
       <c r="I69">
         <v>0.0032678776459504999</v>
       </c>
       <c r="J69">
-        <v>0.57234954346719691</v>
+        <v>0.57237777491629704</v>
       </c>
       <c r="K69">
         <v>0.0128072498484642</v>
       </c>
       <c r="L69">
-        <v>0.400380014551316</v>
+        <v>0.40035178310221592</v>
       </c>
       <c r="M69">
         <v>0.0144631921650074</v>
@@ -3176,31 +3176,31 @@
         <v>70392.027787872037</v>
       </c>
       <c r="D70">
-        <v>0.42687235044748001</v>
+        <v>0.42678403203014598</v>
       </c>
       <c r="E70">
-        <v>0.57312764955252005</v>
+        <v>0.57321596796985397</v>
       </c>
       <c r="F70">
-        <v>0.35948539802166751</v>
+        <v>0.35942651907677808</v>
       </c>
       <c r="G70">
-        <v>0.21735162505887901</v>
+        <v>0.21732218558643429</v>
       </c>
       <c r="H70">
-        <v>0.42010127178520962</v>
+        <v>0.42018959020254359</v>
       </c>
       <c r="I70">
         <v>0.0030617051342440001</v>
       </c>
       <c r="J70">
-        <v>0.54648061645186319</v>
+        <v>0.54642012152162744</v>
       </c>
       <c r="K70">
         <v>0.012092409645716701</v>
       </c>
       <c r="L70">
-        <v>0.42832040249466768</v>
+        <v>0.42838089742490337</v>
       </c>
       <c r="M70">
         <v>0.0131065713606109</v>
@@ -3226,31 +3226,31 @@
         <v>74172.967744658425</v>
       </c>
       <c r="D71">
-        <v>0.49088821503223717</v>
+        <v>0.49094709571054262</v>
       </c>
       <c r="E71">
-        <v>0.50911178496776288</v>
+        <v>0.50905290428945738</v>
       </c>
       <c r="F71">
-        <v>0.34698383725380522</v>
+        <v>0.34704271793211061</v>
       </c>
       <c r="G71">
-        <v>0.2130597344481408</v>
+        <v>0.21308917478729361</v>
       </c>
       <c r="H71">
-        <v>0.43727735743515772</v>
+        <v>0.43718903641769952</v>
       </c>
       <c r="I71">
         <v>0.0026790708628963</v>
       </c>
       <c r="J71">
-        <v>0.5329736563211277</v>
+        <v>0.53303106923458188</v>
       </c>
       <c r="K71">
         <v>0.0103047264617362</v>
       </c>
       <c r="L71">
-        <v>0.44376469598358259</v>
+        <v>0.44370728307012841</v>
       </c>
       <c r="M71">
         <v>0.0129569212441335</v>
@@ -3276,16 +3276,16 @@
         <v>77999.023775833892</v>
       </c>
       <c r="D72">
-        <v>0.50881738157623579</v>
+        <v>0.50884682191538844</v>
       </c>
       <c r="E72">
-        <v>0.49118261842376421</v>
+        <v>0.49115317808461162</v>
       </c>
       <c r="F72">
-        <v>0.39326405040186058</v>
+        <v>0.39323461006270788</v>
       </c>
       <c r="G72">
-        <v>0.23399181558571561</v>
+        <v>0.23402125592486819</v>
       </c>
       <c r="H72">
         <v>0.37009450348868023</v>
@@ -3332,10 +3332,10 @@
         <v>0.49633467777548801</v>
       </c>
       <c r="F73">
-        <v>0.3898195307209939</v>
+        <v>0.3898489710601466</v>
       </c>
       <c r="G73">
-        <v>0.22371713722142081</v>
+        <v>0.22368769688226811</v>
       </c>
       <c r="H73">
         <v>0.38372538051638361</v>
@@ -3376,31 +3376,31 @@
         <v>86873.884957274713</v>
       </c>
       <c r="D74">
-        <v>0.49032884858833581</v>
+        <v>0.49041716960579379</v>
       </c>
       <c r="E74">
-        <v>0.5096711514116643</v>
+        <v>0.50958283039420615</v>
       </c>
       <c r="F74">
-        <v>0.36411811464068072</v>
+        <v>0.36414755497983342</v>
       </c>
       <c r="G74">
         <v>0.20596461271233851</v>
       </c>
       <c r="H74">
-        <v>0.42682603703594668</v>
+        <v>0.42679659669679387</v>
       </c>
       <c r="I74">
         <v>0.0030912356110342001</v>
       </c>
       <c r="J74">
-        <v>0.544245640401819</v>
+        <v>0.54427581887356014</v>
       </c>
       <c r="K74">
         <v>0.012941664705394099</v>
       </c>
       <c r="L74">
-        <v>0.42899040532624833</v>
+        <v>0.42896022685450719</v>
       </c>
       <c r="M74">
         <v>0.01382228958416</v>
@@ -3426,31 +3426,31 @@
         <v>91430.231129662614</v>
       </c>
       <c r="D75">
-        <v>0.49462713810463099</v>
+        <v>0.49450937674802009</v>
       </c>
       <c r="E75">
-        <v>0.50537286189536901</v>
+        <v>0.5054906232519798</v>
       </c>
       <c r="F75">
-        <v>0.37665969911973379</v>
+        <v>0.37663025878058121</v>
       </c>
       <c r="G75">
         <v>0.2100568198545647</v>
       </c>
       <c r="H75">
-        <v>0.41004504371890371</v>
+        <v>0.41007448405805641</v>
       </c>
       <c r="I75">
         <v>0.0032384373067978001</v>
       </c>
       <c r="J75">
-        <v>0.56102893321524605</v>
+        <v>0.56100025866143777</v>
       </c>
       <c r="K75">
         <v>0.0135506131524534</v>
       </c>
       <c r="L75">
-        <v>0.41185041678026763</v>
+        <v>0.4118790913340758</v>
       </c>
       <c r="M75">
         <v>0.0135700368655397</v>
@@ -3476,10 +3476,10 @@
         <v>96496.391682782181</v>
       </c>
       <c r="D76">
-        <v>0.49291959843377398</v>
+        <v>0.49294903877292667</v>
       </c>
       <c r="E76">
-        <v>0.50708040156622602</v>
+        <v>0.50705096122707327</v>
       </c>
       <c r="F76">
         <v>0.39971148467630352</v>
@@ -3576,31 +3576,31 @@
         <v>107904.83909658639</v>
       </c>
       <c r="D78">
-        <v>0.48611888008949861</v>
+        <v>0.48608943975034591</v>
       </c>
       <c r="E78">
-        <v>0.51388111991050134</v>
+        <v>0.51391056024965409</v>
       </c>
       <c r="F78">
-        <v>0.38519739747401888</v>
+        <v>0.38525627815232433</v>
       </c>
       <c r="G78">
         <v>0.21953660906173639</v>
       </c>
       <c r="H78">
-        <v>0.39226307887066858</v>
+        <v>0.39220419819236318</v>
       </c>
       <c r="I78">
         <v>0.0030029145935760999</v>
       </c>
       <c r="J78">
-        <v>0.58429762819629905</v>
+        <v>0.58435806030866366</v>
       </c>
       <c r="K78">
         <v>0.015400554262603</v>
       </c>
       <c r="L78">
-        <v>0.38520602707911461</v>
+        <v>0.38514559496674988</v>
       </c>
       <c r="M78">
         <v>0.0150957904767974</v>
@@ -3626,31 +3626,31 @@
         <v>113851.9065736137</v>
       </c>
       <c r="D79">
-        <v>0.50260547001501454</v>
+        <v>0.5026349103541673</v>
       </c>
       <c r="E79">
-        <v>0.49739452998498551</v>
+        <v>0.4973650896458327</v>
       </c>
       <c r="F79">
-        <v>0.38993729207760469</v>
+        <v>0.3898784113992993</v>
       </c>
       <c r="G79">
         <v>0.22757382165042539</v>
       </c>
       <c r="H79">
-        <v>0.37907380693025577</v>
+        <v>0.37913268760856123</v>
       </c>
       <c r="I79">
         <v>0.0034150793417140001</v>
       </c>
       <c r="J79">
-        <v>0.59850356360851231</v>
+        <v>0.59844628817451018</v>
       </c>
       <c r="K79">
         <v>0.017500885049680101</v>
       </c>
       <c r="L79">
-        <v>0.36743691969540082</v>
+        <v>0.36749419512940279</v>
       </c>
       <c r="M79">
         <v>0.016558631657269202</v>
@@ -3676,10 +3676,10 @@
         <v>120479.1408747829</v>
       </c>
       <c r="D80">
-        <v>0.52624606235463833</v>
+        <v>0.52621662201548558</v>
       </c>
       <c r="E80">
-        <v>0.47375393764536172</v>
+        <v>0.47378337798451442</v>
       </c>
       <c r="F80">
         <v>0.40371537080107162</v>
@@ -3726,10 +3726,10 @@
         <v>127803.4798552179</v>
       </c>
       <c r="D81">
-        <v>0.52760031795566287</v>
+        <v>0.52762975829481551</v>
       </c>
       <c r="E81">
-        <v>0.47239968204433708</v>
+        <v>0.47237024170518449</v>
       </c>
       <c r="F81">
         <v>0.41131097830246999</v>
@@ -3926,10 +3926,10 @@
         <v>160156.9112185172</v>
       </c>
       <c r="D85">
-        <v>0.53401831189095295</v>
+        <v>0.5339888715518003</v>
       </c>
       <c r="E85">
-        <v>0.46598168810904711</v>
+        <v>0.4660111284481997</v>
       </c>
       <c r="F85">
         <v>0.39635528601289488</v>
@@ -3944,13 +3944,13 @@
         <v>0.0032384373067978001</v>
       </c>
       <c r="J85">
-        <v>0.68749616514364309</v>
+        <v>0.68748963818133879</v>
       </c>
       <c r="K85">
         <v>0.0212683362637285</v>
       </c>
       <c r="L85">
-        <v>0.27471284492232712</v>
+        <v>0.27471937188463141</v>
       </c>
       <c r="M85">
         <v>0.016522653718699098</v>
@@ -3976,10 +3976,10 @@
         <v>169271.02293540421</v>
       </c>
       <c r="D86">
-        <v>0.53972973768657817</v>
+        <v>0.53975917802573081</v>
       </c>
       <c r="E86">
-        <v>0.46027026231342177</v>
+        <v>0.46024082197426919</v>
       </c>
       <c r="F86">
         <v>0.38487355374333909</v>
@@ -3994,13 +3994,13 @@
         <v>0.0033267583242558999</v>
       </c>
       <c r="J86">
-        <v>0.68870714676928524</v>
+        <v>0.68871332229835203</v>
       </c>
       <c r="K86">
         <v>0.023387221038441101</v>
       </c>
       <c r="L86">
-        <v>0.27143515929508538</v>
+        <v>0.27142898376601871</v>
       </c>
       <c r="M86">
         <v>0.0164704729617762</v>
